--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/CAX/cax.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/CAX/cax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CAX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CAX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1528D317-DAFF-453C-832D-34A31B90E02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4FFEA5-B0E1-4D2D-8116-4CEC0AC24E0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" tabRatio="869" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="869" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAX Fact Sheet Backup" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -281,9 +281,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Nestle - ADR</t>
-  </si>
-  <si>
     <t>eBay Inc</t>
   </si>
   <si>
@@ -368,16 +365,28 @@
     <t xml:space="preserve">                           </t>
   </si>
   <si>
-    <t>$184.2B</t>
-  </si>
-  <si>
     <t>Micron Technology Inc</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
     <t>MSCI ACWI Value</t>
+  </si>
+  <si>
+    <t>need to adjust next quarter</t>
+  </si>
+  <si>
+    <t>MSCI ACWI Value, G</t>
+  </si>
+  <si>
+    <t>BB COMP: M2WD000V INDEX</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/documents/10199/9446b2a4-0820-495e-87e1-6291f7530293</t>
+  </si>
+  <si>
+    <t>Mosaic Co</t>
+  </si>
+  <si>
+    <t>2021 YTD</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1135,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1586,6 +1595,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1602,69 +1677,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1991,36 +2003,36 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:S138"/>
+  <dimension ref="A1:S142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="122" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="124" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="123" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="75"/>
+    <col min="1" max="1" width="10.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="122" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="124" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="123" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="75"/>
     <col min="7" max="7" width="19" style="75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="75" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="77" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5546875" style="77" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" style="77" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.44140625" style="75" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" style="75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="75"/>
+    <col min="8" max="8" width="11.5703125" style="75" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" style="77" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="75" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="75" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2040,15 +2052,15 @@
         <v>2</v>
       </c>
       <c r="H1" s="32">
-        <v>44196</v>
-      </c>
-      <c r="P1" s="172" t="s">
+        <v>44286</v>
+      </c>
+      <c r="P1" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="174"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q1" s="168"/>
+      <c r="R1" s="169"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="33">
         <v>40753</v>
       </c>
@@ -2064,21 +2076,21 @@
         <v>3</v>
       </c>
       <c r="H2" s="34">
-        <v>7.2300000000000001E-4</v>
-      </c>
-      <c r="I2" s="167"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="I2" s="162"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
       <c r="N2" s="35"/>
-      <c r="P2" s="175" t="s">
+      <c r="P2" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="177"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q2" s="171"/>
+      <c r="R2" s="172"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
         <v>40786</v>
       </c>
@@ -2101,8 +2113,8 @@
         <v>4</v>
       </c>
       <c r="H3" s="83">
-        <f>(COUNTA(C3:C311))+I3</f>
-        <v>113.09677419354838</v>
+        <f>(COUNTA(C3:C314))+I3</f>
+        <v>116.09677419354838</v>
       </c>
       <c r="I3" s="36">
         <f>3/31</f>
@@ -2113,13 +2125,13 @@
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="37"/>
-      <c r="P3" s="178" t="s">
+      <c r="P3" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="180"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="174"/>
+      <c r="R3" s="175"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33">
         <f>EOMONTH(A3,1)</f>
         <v>40816</v>
@@ -2143,13 +2155,13 @@
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
-      <c r="P4" s="181" t="s">
+      <c r="P4" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="182"/>
-      <c r="R4" s="183"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q4" s="177"/>
+      <c r="R4" s="178"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <f t="shared" ref="A5:A68" si="2">EOMONTH(A4,1)</f>
         <v>40847</v>
@@ -2168,17 +2180,17 @@
       <c r="E5" s="80">
         <v>0.10732221987761137</v>
       </c>
-      <c r="G5" s="169" t="s">
+      <c r="G5" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="171"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="166"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <f t="shared" si="2"/>
         <v>40877</v>
@@ -2208,7 +2220,7 @@
       </c>
       <c r="M6" s="86"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <f t="shared" si="2"/>
         <v>40908</v>
@@ -2228,16 +2240,16 @@
         <v>-1.6687935604201565E-3</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="42">
         <f>((H36-H2)-H8*(I36-H2))</f>
-        <v>4.2781594677875068E-3</v>
+        <v>8.230259415168889E-3</v>
       </c>
       <c r="I7" s="43"/>
       <c r="M7" s="86"/>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33">
         <f t="shared" si="2"/>
         <v>40939</v>
@@ -2257,18 +2269,18 @@
         <v>5.8426745329400287E-2</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="44">
-        <f>COVAR(C3:C115,E3:E115)/VAR(E3:E115)</f>
-        <v>0.77304238627201904</v>
+        <f>COVAR(C3:C118,E3:E118)/VAR(E3:E118)</f>
+        <v>0.77534444342982078</v>
       </c>
       <c r="I8" s="44">
         <v>1</v>
       </c>
       <c r="M8" s="86"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <f t="shared" si="2"/>
         <v>40968</v>
@@ -2288,11 +2300,11 @@
         <v>5.0816595752587013E-2</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="45">
-        <f>RSQ(C3:C115,E3:E115)</f>
-        <v>0.8654331668013262</v>
+        <f>RSQ(C3:C118,E3:E118)</f>
+        <v>0.86252696994185818</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -2300,16 +2312,16 @@
       <c r="M9" s="86"/>
       <c r="P9" s="87"/>
       <c r="Q9" s="88"/>
-      <c r="R9" s="165" t="str">
+      <c r="R9" s="160" t="str">
         <f>B1</f>
         <v>CAXAX</v>
       </c>
-      <c r="S9" s="163" t="str">
+      <c r="S9" s="158" t="str">
         <f>D1</f>
         <v>MSCI ACWI, G</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <f t="shared" si="2"/>
         <v>40999</v>
@@ -2329,23 +2341,23 @@
         <v>7.1256807412123369E-3</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="44">
         <f>(H36-$H$2)/H11</f>
-        <v>0.66986406148488931</v>
+        <v>0.72924358443202297</v>
       </c>
       <c r="I10" s="46">
         <f>(I36-$H$2)/I11</f>
-        <v>0.68796660705111812</v>
+        <v>0.71730289838241135</v>
       </c>
       <c r="M10" s="86"/>
       <c r="P10" s="89"/>
       <c r="Q10" s="90"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="164"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R10" s="161"/>
+      <c r="S10" s="159"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <f t="shared" si="2"/>
         <v>41029</v>
@@ -2365,15 +2377,15 @@
         <v>-1.0797240120086316E-2</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="42">
-        <f>STDEV(C2:C115)*SQRT(12)</f>
-        <v>0.12043786887322049</v>
+        <f>STDEV(C2:C118)*SQRT(12)</f>
+        <v>0.11960749722321427</v>
       </c>
       <c r="I11" s="47">
-        <f>STDEV(E2:E115)*SQRT(12)</f>
-        <v>0.14365346362570461</v>
+        <f>STDEV(E2:E118)*SQRT(12)</f>
+        <v>0.14203321480359779</v>
       </c>
       <c r="M11" s="86"/>
       <c r="P11" s="91" t="s">
@@ -2381,18 +2393,18 @@
       </c>
       <c r="Q11" s="92">
         <f>EOMONTH($H$1,-3)</f>
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="R11" s="93">
-        <f t="shared" ref="R11:R17" si="3">SUMIF($A$2:$A$318,$Q11,$B$2:$B$318)</f>
-        <v>18371</v>
+        <f t="shared" ref="R11:R17" si="3">SUMIF($A$2:$A$321,$Q11,$B$2:$B$321)</f>
+        <v>20911</v>
       </c>
       <c r="S11" s="94">
-        <f t="shared" ref="S11:S17" si="4">SUMIF($A$2:$A$318,$Q11,$D$2:$D$318)</f>
-        <v>21308.52553761056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" ref="S11:S17" si="4">SUMIF($A$2:$A$321,$Q11,$D$2:$D$321)</f>
+        <v>24459.45537800714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <f t="shared" si="2"/>
         <v>41060</v>
@@ -2418,18 +2430,19 @@
         <v>58</v>
       </c>
       <c r="Q12" s="96">
-        <v>43830</v>
+        <f>Q11</f>
+        <v>44196</v>
       </c>
       <c r="R12" s="93">
         <f t="shared" si="3"/>
-        <v>19829</v>
+        <v>20911</v>
       </c>
       <c r="S12" s="94">
         <f t="shared" si="4"/>
-        <v>20937.826865459945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>24459.45537800714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <f t="shared" si="2"/>
         <v>41090</v>
@@ -2480,18 +2493,18 @@
       </c>
       <c r="Q13" s="92">
         <f>EOMONTH($H$1,-12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="R13" s="93">
         <f t="shared" si="3"/>
-        <v>19829</v>
+        <v>15374</v>
       </c>
       <c r="S13" s="94">
         <f t="shared" si="4"/>
-        <v>20937.826865459945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>16486.960838193831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <f t="shared" si="2"/>
         <v>41121</v>
@@ -2514,28 +2527,28 @@
         <v>13</v>
       </c>
       <c r="H14" s="52">
-        <f>H24*100</f>
-        <v>13.82613902346089</v>
+        <f t="shared" ref="H14:M15" si="5">H24*100</f>
+        <v>7.5558318588302811</v>
       </c>
       <c r="I14" s="52">
-        <f>I24*100</f>
-        <v>5.4566543950779156</v>
+        <f t="shared" si="5"/>
+        <v>7.5558318588302811</v>
       </c>
       <c r="J14" s="52">
-        <f>J24*100</f>
-        <v>5.4566543950779156</v>
+        <f t="shared" si="5"/>
+        <v>46.300000000000004</v>
       </c>
       <c r="K14" s="52">
-        <f>K24*100</f>
-        <v>6.2338675217651129</v>
+        <f t="shared" si="5"/>
+        <v>8.2859757643265919</v>
       </c>
       <c r="L14" s="52">
-        <f>L24*100</f>
-        <v>9.1433474627167435</v>
+        <f t="shared" si="5"/>
+        <v>10.161698089845327</v>
       </c>
       <c r="M14" s="53">
-        <f>M24*100</f>
-        <v>8.14</v>
+        <f t="shared" si="5"/>
+        <v>8.74</v>
       </c>
       <c r="N14" s="35"/>
       <c r="P14" s="91" t="s">
@@ -2543,18 +2556,18 @@
       </c>
       <c r="Q14" s="92">
         <f>EOMONTH($H$1,-36)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="R14" s="93">
         <f t="shared" si="3"/>
-        <v>17441.580000000002</v>
+        <v>17713</v>
       </c>
       <c r="S14" s="94">
         <f t="shared" si="4"/>
-        <v>18060.701685960954</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>17908.770188097213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <f t="shared" si="2"/>
         <v>41152</v>
@@ -2577,46 +2590,46 @@
         <v>14</v>
       </c>
       <c r="H15" s="52">
-        <f>H25*100</f>
-        <v>13.61</v>
+        <f t="shared" si="5"/>
+        <v>7.39</v>
       </c>
       <c r="I15" s="52">
-        <f>I25*100</f>
-        <v>4.68</v>
+        <f t="shared" si="5"/>
+        <v>7.39</v>
       </c>
       <c r="J15" s="52">
-        <f>J25*100</f>
-        <v>4.68</v>
+        <f t="shared" si="5"/>
+        <v>45.25</v>
       </c>
       <c r="K15" s="52">
-        <f>K25*100</f>
-        <v>5.4399999999999995</v>
+        <f t="shared" si="5"/>
+        <v>7.4899999999999993</v>
       </c>
       <c r="L15" s="52">
-        <f>L25*100</f>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="5"/>
+        <v>9.31</v>
       </c>
       <c r="M15" s="53">
-        <f>M25*100</f>
-        <v>7.32</v>
+        <f t="shared" si="5"/>
+        <v>7.9200000000000008</v>
       </c>
       <c r="P15" s="91" t="s">
         <v>53</v>
       </c>
       <c r="Q15" s="92">
         <f>EOMONTH($H$1,-60)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="R15" s="93">
         <f t="shared" si="3"/>
-        <v>13501.7</v>
+        <v>13862.95</v>
       </c>
       <c r="S15" s="94">
         <f t="shared" si="4"/>
-        <v>13358.625702483727</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13410.037761270756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <f t="shared" si="2"/>
         <v>41182</v>
@@ -2640,31 +2653,31 @@
         <v>MSCI ACWI, G</v>
       </c>
       <c r="H16" s="55">
-        <f>H27*100</f>
-        <v>14.787179126190781</v>
+        <f t="shared" ref="H16:M17" si="6">H27*100</f>
+        <v>4.6813506990498137</v>
       </c>
       <c r="I16" s="55">
-        <f>I27*100</f>
-        <v>16.819455692207697</v>
+        <f t="shared" si="6"/>
+        <v>4.6813506990498137</v>
       </c>
       <c r="J16" s="55">
-        <f>J27*100</f>
-        <v>16.819455692207697</v>
+        <f t="shared" si="6"/>
+        <v>55.31</v>
       </c>
       <c r="K16" s="55">
-        <f>K27*100</f>
-        <v>10.637933256990294</v>
+        <f t="shared" si="6"/>
+        <v>12.659999999999998</v>
       </c>
       <c r="L16" s="55">
-        <f>L27*100</f>
-        <v>12.85920851984692</v>
+        <f t="shared" si="6"/>
+        <v>13.809160521929375</v>
       </c>
       <c r="M16" s="132">
-        <f>M27*100</f>
-        <v>9.9551785961717201</v>
+        <f t="shared" si="6"/>
+        <v>10.205783664519231</v>
       </c>
       <c r="N16" s="130" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="P16" s="91" t="s">
         <v>5</v>
@@ -2682,7 +2695,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <f t="shared" si="2"/>
         <v>41213</v>
@@ -2702,49 +2715,49 @@
         <v>-6.3996947571065554E-3</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" s="55">
-        <f>H28*100</f>
-        <v>15.190000000000001</v>
+        <f t="shared" si="6"/>
+        <v>9.0399999999999991</v>
       </c>
       <c r="I17" s="55">
-        <f>I28*100</f>
-        <v>-0.32</v>
+        <f t="shared" si="6"/>
+        <v>9.0399999999999991</v>
       </c>
       <c r="J17" s="55">
-        <f>J28*100</f>
-        <v>-0.32</v>
+        <f t="shared" si="6"/>
+        <v>49.88</v>
       </c>
       <c r="K17" s="55">
-        <f>K28*100</f>
-        <v>3.2399999999999998</v>
+        <f t="shared" si="6"/>
+        <v>7.03</v>
       </c>
       <c r="L17" s="55">
-        <f>L28*100</f>
-        <v>8.02</v>
-      </c>
-      <c r="M17" s="132">
-        <f>M28*100</f>
-        <v>7.7700000000000005</v>
+        <f t="shared" si="6"/>
+        <v>9.85</v>
+      </c>
+      <c r="M17" s="55">
+        <f t="shared" si="6"/>
+        <v>7.75</v>
       </c>
       <c r="P17" s="97" t="s">
         <v>6</v>
       </c>
       <c r="Q17" s="98">
         <f>H1</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="R17" s="99">
         <f t="shared" si="3"/>
-        <v>20911</v>
+        <v>22491</v>
       </c>
       <c r="S17" s="100">
         <f t="shared" si="4"/>
-        <v>24459.45537800714</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25604.488263329255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
         <f t="shared" si="2"/>
         <v>41243</v>
@@ -2767,35 +2780,35 @@
         <v>15</v>
       </c>
       <c r="H18" s="52">
-        <f>H26*100</f>
-        <v>7.28</v>
+        <f t="shared" ref="H18:M18" si="7">H26*100</f>
+        <v>1.37</v>
       </c>
       <c r="I18" s="52">
-        <f>I26*100</f>
-        <v>-0.61</v>
+        <f t="shared" si="7"/>
+        <v>1.37</v>
       </c>
       <c r="J18" s="52">
-        <f>J26*100</f>
-        <v>-0.61</v>
+        <f t="shared" si="7"/>
+        <v>37.880000000000003</v>
       </c>
       <c r="K18" s="52">
-        <f>K26*100</f>
-        <v>4.16</v>
+        <f t="shared" si="7"/>
+        <v>6.17</v>
       </c>
       <c r="L18" s="52">
-        <f>L26*100</f>
-        <v>7.86</v>
+        <f t="shared" si="7"/>
+        <v>8.86</v>
       </c>
       <c r="M18" s="53">
-        <f>M26*100</f>
-        <v>7.46</v>
+        <f t="shared" si="7"/>
+        <v>8.08</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
         <f t="shared" si="2"/>
         <v>41274</v>
@@ -2818,34 +2831,34 @@
         <v>61</v>
       </c>
       <c r="H19" s="52">
-        <f>H29*100</f>
-        <v>13.88</v>
+        <f t="shared" ref="H19:M21" si="8">H29*100</f>
+        <v>7.6300000000000008</v>
       </c>
       <c r="I19" s="52">
-        <f>I29*100</f>
-        <v>5.66</v>
+        <f t="shared" si="8"/>
+        <v>7.6300000000000008</v>
       </c>
       <c r="J19" s="52">
-        <f>J29*100</f>
-        <v>5.66</v>
+        <f t="shared" si="8"/>
+        <v>46.67</v>
       </c>
       <c r="K19" s="52">
-        <f>K29*100</f>
-        <v>6.5100000000000007</v>
+        <f t="shared" si="8"/>
+        <v>8.57</v>
       </c>
       <c r="L19" s="52">
-        <f>L29*100</f>
-        <v>9.42</v>
+        <f t="shared" si="8"/>
+        <v>10.42</v>
       </c>
       <c r="M19" s="53">
-        <f>M29*100</f>
-        <v>6.23</v>
+        <f t="shared" si="8"/>
+        <v>7.1400000000000006</v>
       </c>
       <c r="N19" s="35"/>
-      <c r="P19" s="159" t="s">
+      <c r="P19" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="160"/>
+      <c r="Q19" s="182"/>
       <c r="R19" s="57" t="str">
         <f>R9</f>
         <v>CAXAX</v>
@@ -2855,7 +2868,7 @@
         <v>MSCI ACWI, G</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <f t="shared" si="2"/>
         <v>41305</v>
@@ -2879,45 +2892,45 @@
         <v>MSCI ACWI, G</v>
       </c>
       <c r="H20" s="55">
-        <f>H30*100</f>
-        <v>14.787179126190781</v>
+        <f t="shared" si="8"/>
+        <v>4.6813506990498137</v>
       </c>
       <c r="I20" s="55">
-        <f>I30*100</f>
-        <v>16.819455692207697</v>
+        <f t="shared" si="8"/>
+        <v>4.6813506990498137</v>
       </c>
       <c r="J20" s="55">
-        <f>J30*100</f>
-        <v>16.819455692207697</v>
+        <f t="shared" si="8"/>
+        <v>55.31</v>
       </c>
       <c r="K20" s="55">
-        <f>K30*100</f>
-        <v>10.637933256990294</v>
+        <f t="shared" si="8"/>
+        <v>12.659999999999998</v>
       </c>
       <c r="L20" s="55">
-        <f>L30*100</f>
-        <v>12.85920851984692</v>
+        <f t="shared" si="8"/>
+        <v>13.809160521929375</v>
       </c>
       <c r="M20" s="132">
-        <f>M30*100</f>
-        <v>9.16</v>
+        <f t="shared" si="8"/>
+        <v>9.5500000000000007</v>
       </c>
       <c r="N20" s="35"/>
-      <c r="P20" s="161" t="str">
+      <c r="P20" s="183" t="str">
         <f>P11</f>
         <v>QTD</v>
       </c>
-      <c r="Q20" s="162"/>
+      <c r="Q20" s="184"/>
       <c r="R20" s="101">
         <f>($R$17-R11)/R11</f>
-        <v>0.1382613902346089</v>
+        <v>7.5558318588302809E-2</v>
       </c>
       <c r="S20" s="102">
         <f>($S$17-S11)/S11</f>
-        <v>0.1478717912619078</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4.6813506990498133E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <f t="shared" si="2"/>
         <v>41333</v>
@@ -2937,47 +2950,47 @@
         <v>3.0573166414571418E-4</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21" s="55">
         <f>H31*100</f>
-        <v>15.190000000000001</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="I21" s="55">
-        <f>I31*100</f>
-        <v>-0.32</v>
+        <f t="shared" si="8"/>
+        <v>9.0399999999999991</v>
       </c>
       <c r="J21" s="55">
-        <f>J31*100</f>
-        <v>-0.32</v>
+        <f t="shared" si="8"/>
+        <v>49.88</v>
       </c>
       <c r="K21" s="55">
-        <f>K31*100</f>
-        <v>3.2399999999999998</v>
+        <f t="shared" si="8"/>
+        <v>7.03</v>
       </c>
       <c r="L21" s="55">
-        <f>L31*100</f>
-        <v>8.02</v>
-      </c>
-      <c r="M21" s="132">
-        <f>M31*100</f>
-        <v>5.0500000000000007</v>
-      </c>
-      <c r="P21" s="161" t="str">
-        <f t="shared" ref="P21:P23" si="5">P12</f>
+        <f t="shared" si="8"/>
+        <v>9.85</v>
+      </c>
+      <c r="M21" s="55">
+        <f t="shared" si="8"/>
+        <v>5.94</v>
+      </c>
+      <c r="P21" s="183" t="str">
+        <f t="shared" ref="P21:P23" si="9">P12</f>
         <v>YTD</v>
       </c>
-      <c r="Q21" s="162"/>
+      <c r="Q21" s="184"/>
       <c r="R21" s="101">
         <f>($R$17-R12)/R12</f>
-        <v>5.4566543950779159E-2</v>
+        <v>7.5558318588302809E-2</v>
       </c>
       <c r="S21" s="102">
         <f>($S$17-S12)/S12</f>
-        <v>0.16819455692207697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4.6813506990498133E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <f t="shared" si="2"/>
         <v>41364</v>
@@ -2997,21 +3010,21 @@
         <v>1.8756535027748766E-2</v>
       </c>
       <c r="N22" s="35"/>
-      <c r="P22" s="161" t="str">
-        <f t="shared" si="5"/>
+      <c r="P22" s="183" t="str">
+        <f t="shared" si="9"/>
         <v>1YR</v>
       </c>
-      <c r="Q22" s="162"/>
+      <c r="Q22" s="184"/>
       <c r="R22" s="101">
         <f>($R$17-R13)/R13</f>
-        <v>5.4566543950779159E-2</v>
+        <v>0.46292441784831534</v>
       </c>
       <c r="S22" s="102">
         <f>($S$17-S13)/S13</f>
-        <v>0.16819455692207697</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.55301444060045823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <f t="shared" si="2"/>
         <v>41394</v>
@@ -3032,44 +3045,44 @@
       </c>
       <c r="G23" s="103"/>
       <c r="H23" s="56" t="str">
-        <f>H13</f>
+        <f t="shared" ref="H23:M23" si="10">H13</f>
         <v>QTD</v>
       </c>
       <c r="I23" s="56" t="str">
-        <f>I13</f>
+        <f t="shared" si="10"/>
         <v>YTD</v>
       </c>
       <c r="J23" s="56" t="str">
-        <f>J13</f>
+        <f t="shared" si="10"/>
         <v>1YR</v>
       </c>
       <c r="K23" s="56" t="str">
-        <f>K13</f>
+        <f t="shared" si="10"/>
         <v>3YRS</v>
       </c>
       <c r="L23" s="56" t="str">
-        <f>L13</f>
+        <f t="shared" si="10"/>
         <v>5YRS</v>
       </c>
       <c r="M23" s="56" t="str">
-        <f>M13</f>
+        <f t="shared" si="10"/>
         <v>Since Inception*</v>
       </c>
-      <c r="P23" s="161" t="str">
-        <f t="shared" si="5"/>
+      <c r="P23" s="183" t="str">
+        <f t="shared" si="9"/>
         <v>3YRS</v>
       </c>
-      <c r="Q23" s="162"/>
+      <c r="Q23" s="184"/>
       <c r="R23" s="101">
         <f>R17/R14-1</f>
-        <v>0.1989166119124528</v>
+        <v>0.26974538474566701</v>
       </c>
       <c r="S23" s="102">
         <f>S17/S14-1</f>
-        <v>0.35429153325864982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.42971784183968609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <f t="shared" si="2"/>
         <v>41425</v>
@@ -3093,41 +3106,40 @@
       </c>
       <c r="H24" s="104">
         <f>R20</f>
-        <v>0.1382613902346089</v>
+        <v>7.5558318588302809E-2</v>
       </c>
       <c r="I24" s="104">
         <f>R21</f>
-        <v>5.4566543950779159E-2</v>
-      </c>
-      <c r="J24" s="104">
-        <f>R22</f>
-        <v>5.4566543950779159E-2</v>
+        <v>7.5558318588302809E-2</v>
+      </c>
+      <c r="J24" s="66">
+        <v>0.46300000000000002</v>
       </c>
       <c r="K24" s="104">
         <f>R24</f>
-        <v>6.2338675217651129E-2</v>
+        <v>8.2859757643265919E-2</v>
       </c>
       <c r="L24" s="104">
         <f>R26</f>
-        <v>9.1433474627167444E-2</v>
+        <v>0.10161698089845328</v>
       </c>
       <c r="M24" s="66">
-        <v>8.14E-2</v>
-      </c>
-      <c r="P24" s="161" t="s">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="P24" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="Q24" s="162"/>
+      <c r="Q24" s="184"/>
       <c r="R24" s="106">
         <f>(1+R23)^(12/36)-1</f>
-        <v>6.2338675217651129E-2</v>
+        <v>8.2859757643265919E-2</v>
       </c>
       <c r="S24" s="102">
         <f>(1+S23)^(12/36)-1</f>
-        <v>0.10637933256990295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.12654906717807224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <f t="shared" si="2"/>
         <v>41455</v>
@@ -3150,39 +3162,39 @@
         <v>14</v>
       </c>
       <c r="H25" s="105">
-        <v>0.1361</v>
+        <v>7.3899999999999993E-2</v>
       </c>
       <c r="I25" s="66">
-        <v>4.6800000000000001E-2</v>
+        <v>7.3899999999999993E-2</v>
       </c>
       <c r="J25" s="66">
-        <v>4.6800000000000001E-2</v>
+        <v>0.45250000000000001</v>
       </c>
       <c r="K25" s="66">
-        <v>5.4399999999999997E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="L25" s="66">
-        <v>8.3000000000000004E-2</v>
+        <v>9.3100000000000002E-2</v>
       </c>
       <c r="M25" s="66">
-        <v>7.3200000000000001E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="N25" s="35"/>
-      <c r="P25" s="161" t="str">
+      <c r="P25" s="183" t="str">
         <f>P15</f>
         <v>5YRS</v>
       </c>
-      <c r="Q25" s="162"/>
+      <c r="Q25" s="184"/>
       <c r="R25" s="101">
         <f>R17/R15-1</f>
-        <v>0.54876793292696457</v>
+        <v>0.62238196054952222</v>
       </c>
       <c r="S25" s="102">
         <f>S17/S15-1</f>
-        <v>0.83098590549321782</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.90935243577591041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <f t="shared" si="2"/>
         <v>41486</v>
@@ -3205,37 +3217,37 @@
         <v>15</v>
       </c>
       <c r="H26" s="66">
-        <v>7.2800000000000004E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="I26" s="66">
-        <v>-6.1000000000000004E-3</v>
+        <v>1.37E-2</v>
       </c>
       <c r="J26" s="66">
-        <v>-6.1000000000000004E-3</v>
+        <v>0.37880000000000003</v>
       </c>
       <c r="K26" s="66">
-        <v>4.1599999999999998E-2</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="L26" s="66">
-        <v>7.8600000000000003E-2</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="M26" s="66">
-        <v>7.46E-2</v>
-      </c>
-      <c r="P26" s="161" t="s">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="P26" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="Q26" s="162"/>
+      <c r="Q26" s="184"/>
       <c r="R26" s="106">
         <f>(1+R25)^(12/60)-1</f>
-        <v>9.1433474627167444E-2</v>
+        <v>0.10161698089845328</v>
       </c>
       <c r="S26" s="102">
         <f>(1+S25)^(12/60)-1</f>
-        <v>0.12859208519846921</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.13809160521929376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <f t="shared" si="2"/>
         <v>41517</v>
@@ -3260,42 +3272,41 @@
       </c>
       <c r="H27" s="104">
         <f>S20</f>
-        <v>0.1478717912619078</v>
+        <v>4.6813506990498133E-2</v>
       </c>
       <c r="I27" s="104">
         <f>S21</f>
-        <v>0.16819455692207697</v>
-      </c>
-      <c r="J27" s="104">
-        <f>S22</f>
-        <v>0.16819455692207697</v>
-      </c>
-      <c r="K27" s="104">
-        <f>S24</f>
-        <v>0.10637933256990295</v>
+        <v>4.6813506990498133E-2</v>
+      </c>
+      <c r="J27" s="66">
+        <v>0.55310000000000004</v>
+      </c>
+      <c r="K27" s="66">
+        <v>0.12659999999999999</v>
       </c>
       <c r="L27" s="104">
         <f>S26</f>
-        <v>0.12859208519846921</v>
+        <v>0.13809160521929376</v>
       </c>
       <c r="M27" s="104">
         <f>S28</f>
-        <v>9.955178596171721E-2</v>
-      </c>
-      <c r="P27" s="161" t="s">
+        <v>0.1020578366451923</v>
+      </c>
+      <c r="N27" s="35"/>
+      <c r="P27" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="Q27" s="162"/>
+      <c r="Q27" s="184"/>
       <c r="R27" s="101">
         <f>($R$17-R16)/R16</f>
-        <v>1.0911</v>
+        <v>1.2491000000000001</v>
       </c>
       <c r="S27" s="102">
         <f>($S$17-S16)/S16</f>
-        <v>1.445945537800714</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.5604488263329255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33">
         <f t="shared" si="2"/>
         <v>41547</v>
@@ -3315,41 +3326,43 @@
         <v>5.2036931424079391E-2</v>
       </c>
       <c r="G28" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="104">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="I28" s="104">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="J28" s="104">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="K28" s="104">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="L28" s="104">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="M28" s="104">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="N28" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="H28" s="104">
-        <v>0.15190000000000001</v>
-      </c>
-      <c r="I28" s="104">
-        <v>-3.2000000000000002E-3</v>
-      </c>
-      <c r="J28" s="104">
-        <v>-3.2000000000000002E-3</v>
-      </c>
-      <c r="K28" s="104">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="L28" s="104">
-        <v>8.0199999999999994E-2</v>
-      </c>
-      <c r="M28" s="104">
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="N28" s="107"/>
-      <c r="P28" s="157" t="s">
+      <c r="P28" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="Q28" s="158"/>
+      <c r="Q28" s="180"/>
       <c r="R28" s="108">
         <f>POWER(R17/R16,12/H3)-1</f>
-        <v>8.1416498305872942E-2</v>
+        <v>8.7387523996118377E-2</v>
       </c>
       <c r="S28" s="109">
         <f>POWER(S17/S16,12/H3)-1</f>
-        <v>9.955178596171721E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.1020578366451923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
         <f t="shared" si="2"/>
         <v>41578</v>
@@ -3372,26 +3385,26 @@
         <v>61</v>
       </c>
       <c r="H29" s="66">
-        <v>0.13880000000000001</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="I29" s="66">
-        <v>5.6599999999999998E-2</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="J29" s="66">
-        <v>5.6599999999999998E-2</v>
+        <v>0.4667</v>
       </c>
       <c r="K29" s="66">
-        <v>6.5100000000000005E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="L29" s="66">
-        <v>9.4200000000000006E-2</v>
+        <v>0.1042</v>
       </c>
       <c r="M29" s="66">
-        <v>6.2300000000000001E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="N29" s="107"/>
     </row>
-    <row r="30" spans="1:19" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <f t="shared" si="2"/>
         <v>41608</v>
@@ -3416,29 +3429,30 @@
       </c>
       <c r="H30" s="104">
         <f>H27</f>
-        <v>0.1478717912619078</v>
+        <v>4.6813506990498133E-2</v>
       </c>
       <c r="I30" s="104">
         <f>I27</f>
-        <v>0.16819455692207697</v>
+        <v>4.6813506990498133E-2</v>
       </c>
       <c r="J30" s="104">
         <f>J27</f>
-        <v>0.16819455692207697</v>
+        <v>0.55310000000000004</v>
       </c>
       <c r="K30" s="104">
         <f>K27</f>
-        <v>0.10637933256990295</v>
+        <v>0.12659999999999999</v>
       </c>
       <c r="L30" s="104">
         <f>L27</f>
-        <v>0.12859208519846921</v>
+        <v>0.13809160521929376</v>
       </c>
       <c r="M30" s="66">
-        <v>9.1600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="N30" s="157"/>
+    </row>
+    <row r="31" spans="1:19" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
         <f t="shared" si="2"/>
         <v>41639</v>
@@ -3458,28 +3472,36 @@
         <v>1.7599622468666309E-2</v>
       </c>
       <c r="G31" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="104">
+        <f>H28</f>
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="I31" s="104">
+        <f t="shared" ref="I31:L31" si="11">I28</f>
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="J31" s="104">
+        <f t="shared" si="11"/>
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="K31" s="104">
+        <f t="shared" si="11"/>
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="L31" s="104">
+        <f t="shared" si="11"/>
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="M31" s="66">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="N31" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="H31" s="104">
-        <v>0.15190000000000001</v>
-      </c>
-      <c r="I31" s="104">
-        <v>-3.2000000000000002E-3</v>
-      </c>
-      <c r="J31" s="104">
-        <v>-3.2000000000000002E-3</v>
-      </c>
-      <c r="K31" s="104">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="L31" s="104">
-        <v>8.0199999999999994E-2</v>
-      </c>
-      <c r="M31" s="66">
-        <v>5.0500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:19" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <f t="shared" si="2"/>
         <v>41670</v>
@@ -3500,7 +3522,7 @@
       </c>
       <c r="M32" s="75"/>
     </row>
-    <row r="33" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <f t="shared" si="2"/>
         <v>41698</v>
@@ -3530,8 +3552,11 @@
       <c r="K33" s="110"/>
       <c r="L33" s="110"/>
       <c r="M33" s="111"/>
-    </row>
-    <row r="34" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <f t="shared" si="2"/>
         <v>41729</v>
@@ -3555,18 +3580,18 @@
       </c>
       <c r="H34" s="42">
         <f>R27</f>
-        <v>1.0911</v>
+        <v>1.2491000000000001</v>
       </c>
       <c r="I34" s="42">
         <f>S27</f>
-        <v>1.445945537800714</v>
+        <v>1.5604488263329255</v>
       </c>
       <c r="J34" s="110"/>
       <c r="K34" s="110"/>
       <c r="L34" s="110"/>
       <c r="M34" s="111"/>
     </row>
-    <row r="35" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
         <f t="shared" si="2"/>
         <v>41759</v>
@@ -3590,18 +3615,18 @@
       </c>
       <c r="H35" s="62">
         <f>H37/$H$3</f>
-        <v>0.61009697661152307</v>
+        <v>0.62017227007502085</v>
       </c>
       <c r="I35" s="63">
         <f>I37/$H$3</f>
-        <v>0.66314888762122082</v>
+        <v>0.6632397888302306</v>
       </c>
       <c r="J35" s="110"/>
       <c r="K35" s="110"/>
       <c r="L35" s="110"/>
       <c r="M35" s="111"/>
     </row>
-    <row r="36" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
         <f t="shared" si="2"/>
         <v>41790</v>
@@ -3625,18 +3650,18 @@
       </c>
       <c r="H36" s="42">
         <f>M24</f>
-        <v>8.14E-2</v>
+        <v>8.7400000000000005E-2</v>
       </c>
       <c r="I36" s="47">
         <f>M27</f>
-        <v>9.955178596171721E-2</v>
+        <v>0.1020578366451923</v>
       </c>
       <c r="J36" s="110"/>
       <c r="K36" s="110"/>
       <c r="L36" s="110"/>
       <c r="M36" s="111"/>
     </row>
-    <row r="37" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <f t="shared" si="2"/>
         <v>41820</v>
@@ -3659,19 +3684,19 @@
         <v>10</v>
       </c>
       <c r="H37" s="112">
-        <f>COUNTIF(C2:C159,"&gt;0")</f>
-        <v>69</v>
+        <f>COUNTIF(C2:C162,"&gt;0")</f>
+        <v>72</v>
       </c>
       <c r="I37" s="112">
-        <f>COUNTIF(E2:E159,"&gt;0")</f>
-        <v>75</v>
+        <f>COUNTIF(E2:E162,"&gt;0")</f>
+        <v>77</v>
       </c>
       <c r="J37" s="110"/>
       <c r="K37" s="110"/>
       <c r="L37" s="110"/>
       <c r="M37" s="111"/>
     </row>
-    <row r="38" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
         <f t="shared" si="2"/>
         <v>41851</v>
@@ -3698,7 +3723,7 @@
       <c r="L38" s="113"/>
       <c r="M38" s="107"/>
     </row>
-    <row r="39" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
         <f t="shared" si="2"/>
         <v>41882</v>
@@ -3729,7 +3754,7 @@
       <c r="L39" s="113"/>
       <c r="M39" s="107"/>
     </row>
-    <row r="40" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <f t="shared" si="2"/>
         <v>41912</v>
@@ -3752,11 +3777,11 @@
         <v>40753</v>
       </c>
       <c r="H40" s="111">
-        <f t="shared" ref="H40:H50" si="6">VLOOKUP(G40,A:B,2,0)</f>
+        <f>VLOOKUP(G40,A:B,2,0)</f>
         <v>10000</v>
       </c>
       <c r="I40" s="110">
-        <f t="shared" ref="I40:I50" si="7">VLOOKUP(G40,A:D,4,0)</f>
+        <f>VLOOKUP(G40,A:D,4,0)</f>
         <v>10000</v>
       </c>
       <c r="J40" s="65"/>
@@ -3768,7 +3793,7 @@
       </c>
       <c r="M40" s="111"/>
     </row>
-    <row r="41" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
         <f t="shared" si="2"/>
         <v>41943</v>
@@ -3791,15 +3816,15 @@
         <v>40908</v>
       </c>
       <c r="H41" s="111">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(G41,A:B,2,0)</f>
         <v>9597.16</v>
       </c>
       <c r="I41" s="110">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(G41,A:D,4,0)</f>
         <v>9014.8385838637041</v>
       </c>
       <c r="J41" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K41" s="42">
         <f>H41/H40-1</f>
@@ -3811,7 +3836,7 @@
       </c>
       <c r="M41" s="111"/>
     </row>
-    <row r="42" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
         <f t="shared" si="2"/>
         <v>41973</v>
@@ -3834,27 +3859,27 @@
         <v>41274</v>
       </c>
       <c r="H42" s="111">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(G42,A:B,2,0)</f>
         <v>11332.5</v>
       </c>
       <c r="I42" s="110">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(G42,A:D,4,0)</f>
         <v>10529.36692254507</v>
       </c>
       <c r="J42" s="65">
         <v>2012</v>
       </c>
       <c r="K42" s="42">
-        <f t="shared" ref="K42:L50" si="8">H42/H41-1</f>
+        <f t="shared" ref="K42:L51" si="12">H42/H41-1</f>
         <v>0.18081807534729033</v>
       </c>
       <c r="L42" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.16800393313667628</v>
       </c>
       <c r="M42" s="111"/>
     </row>
-    <row r="43" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
         <f t="shared" si="2"/>
         <v>42004</v>
@@ -3877,27 +3902,27 @@
         <v>41639</v>
       </c>
       <c r="H43" s="111">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H43:H51" si="13">VLOOKUP(G43,A:B,2,0)</f>
         <v>13236.12</v>
       </c>
       <c r="I43" s="110">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I43:I51" si="14">VLOOKUP(G43,A:D,4,0)</f>
         <v>12997.500310245176</v>
       </c>
       <c r="J43" s="65">
         <v>2013</v>
       </c>
       <c r="K43" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.16797882197220382</v>
       </c>
       <c r="L43" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.23440472782987865</v>
       </c>
       <c r="M43" s="111"/>
     </row>
-    <row r="44" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
         <f t="shared" si="2"/>
         <v>42035</v>
@@ -3920,27 +3945,27 @@
         <v>42004</v>
       </c>
       <c r="H44" s="111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>13743.58</v>
       </c>
       <c r="I44" s="110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13609.126526849497</v>
       </c>
       <c r="J44" s="65">
         <v>2014</v>
       </c>
       <c r="K44" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.8339029866758523E-2</v>
       </c>
       <c r="L44" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.7057218850167004E-2</v>
       </c>
       <c r="M44" s="116"/>
     </row>
-    <row r="45" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <f t="shared" si="2"/>
         <v>42063</v>
@@ -3963,27 +3988,27 @@
         <v>42369</v>
       </c>
       <c r="H45" s="111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>13501.7</v>
       </c>
       <c r="I45" s="110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13358.625702483727</v>
       </c>
       <c r="J45" s="65">
         <v>2015</v>
       </c>
       <c r="K45" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-1.7599490089190706E-2</v>
       </c>
       <c r="L45" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-1.8406826027486556E-2</v>
       </c>
       <c r="M45" s="116"/>
     </row>
-    <row r="46" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <f t="shared" si="2"/>
         <v>42094</v>
@@ -4006,27 +4031,27 @@
         <v>42735</v>
       </c>
       <c r="H46" s="111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>14896.21</v>
       </c>
       <c r="I46" s="110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>14492.172957257073</v>
       </c>
       <c r="J46" s="65">
         <v>2016</v>
       </c>
       <c r="K46" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.10328403089981242</v>
       </c>
       <c r="L46" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8.4855080157129503E-2</v>
       </c>
       <c r="M46" s="116"/>
     </row>
-    <row r="47" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
         <f t="shared" si="2"/>
         <v>42124</v>
@@ -4049,27 +4074,27 @@
         <v>43100</v>
       </c>
       <c r="H47" s="111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>17441.580000000002</v>
       </c>
       <c r="I47" s="110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>18060.701685960954</v>
       </c>
       <c r="J47" s="65">
         <v>2017</v>
       </c>
       <c r="K47" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.17087366518060643</v>
       </c>
       <c r="L47" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.24623834805372735</v>
       </c>
       <c r="M47" s="116"/>
     </row>
-    <row r="48" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
         <f t="shared" si="2"/>
         <v>42155</v>
@@ -4092,27 +4117,27 @@
         <v>43465</v>
       </c>
       <c r="H48" s="111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>16907.79</v>
       </c>
       <c r="I48" s="110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>16447.958586700224</v>
       </c>
       <c r="J48" s="65">
         <v>2018</v>
       </c>
       <c r="K48" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-3.0604452119590175E-2</v>
       </c>
       <c r="L48" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-8.9295705521472368E-2</v>
       </c>
       <c r="M48" s="116"/>
     </row>
-    <row r="49" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33">
         <f t="shared" si="2"/>
         <v>42185</v>
@@ -4135,28 +4160,28 @@
         <v>43830</v>
       </c>
       <c r="H49" s="111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>19829</v>
       </c>
       <c r="I49" s="110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>20937.826865459945</v>
       </c>
       <c r="J49" s="65">
         <v>2019</v>
       </c>
       <c r="K49" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.17277302355896307</v>
       </c>
       <c r="L49" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.27297419646899024</v>
       </c>
       <c r="M49" s="116"/>
       <c r="N49" s="111"/>
     </row>
-    <row r="50" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
         <f t="shared" si="2"/>
         <v>42216</v>
@@ -4175,33 +4200,32 @@
       <c r="E50" s="80">
         <v>9.0457092974711717E-3</v>
       </c>
-      <c r="G50" s="117">
-        <f>H1</f>
+      <c r="G50" s="115">
         <v>44196</v>
       </c>
       <c r="H50" s="111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>20911</v>
       </c>
       <c r="I50" s="110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24459.45537800714</v>
       </c>
       <c r="J50" s="65">
         <v>2020</v>
       </c>
       <c r="K50" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.4566543950779201E-2</v>
       </c>
       <c r="L50" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.16819455692207685</v>
       </c>
       <c r="M50" s="116"/>
       <c r="N50" s="111"/>
     </row>
-    <row r="51" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
         <f t="shared" si="2"/>
         <v>42247</v>
@@ -4220,15 +4244,33 @@
       <c r="E51" s="80">
         <v>-6.8143634494345462E-2</v>
       </c>
-      <c r="H51" s="116"/>
-      <c r="I51" s="116"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="116"/>
+      <c r="G51" s="117">
+        <f>H1</f>
+        <v>44286</v>
+      </c>
+      <c r="H51" s="111">
+        <f t="shared" si="13"/>
+        <v>22491</v>
+      </c>
+      <c r="I51" s="110">
+        <f t="shared" si="14"/>
+        <v>25604.488263329255</v>
+      </c>
+      <c r="J51" s="65">
+        <v>2021</v>
+      </c>
+      <c r="K51" s="42">
+        <f t="shared" si="12"/>
+        <v>7.5558318588302864E-2</v>
+      </c>
+      <c r="L51" s="47">
+        <f t="shared" si="12"/>
+        <v>4.6813506990498244E-2</v>
+      </c>
       <c r="M51" s="116"/>
       <c r="N51" s="111"/>
     </row>
-    <row r="52" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
         <f t="shared" si="2"/>
         <v>42277</v>
@@ -4255,7 +4297,7 @@
       <c r="M52" s="116"/>
       <c r="N52" s="111"/>
     </row>
-    <row r="53" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
         <f t="shared" si="2"/>
         <v>42308</v>
@@ -4282,7 +4324,7 @@
       <c r="M53" s="116"/>
       <c r="N53" s="111"/>
     </row>
-    <row r="54" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
         <f t="shared" si="2"/>
         <v>42338</v>
@@ -4308,7 +4350,7 @@
       <c r="L54" s="116"/>
       <c r="M54" s="118"/>
     </row>
-    <row r="55" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33">
         <f t="shared" si="2"/>
         <v>42369</v>
@@ -4328,13 +4370,13 @@
         <v>-1.7613391914266696E-2</v>
       </c>
       <c r="H55" s="116"/>
-      <c r="I55" s="118"/>
-      <c r="J55" s="118"/>
-      <c r="K55" s="118"/>
-      <c r="L55" s="118"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
       <c r="M55" s="118"/>
     </row>
-    <row r="56" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="33">
         <f t="shared" si="2"/>
         <v>42400</v>
@@ -4360,7 +4402,7 @@
       <c r="L56" s="118"/>
       <c r="M56" s="118"/>
     </row>
-    <row r="57" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="33">
         <f t="shared" si="2"/>
         <v>42429</v>
@@ -4386,7 +4428,7 @@
       <c r="L57" s="118"/>
       <c r="M57" s="118"/>
     </row>
-    <row r="58" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="33">
         <f t="shared" si="2"/>
         <v>42460</v>
@@ -4412,7 +4454,7 @@
       <c r="L58" s="118"/>
       <c r="M58" s="118"/>
     </row>
-    <row r="59" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="33">
         <f t="shared" si="2"/>
         <v>42490</v>
@@ -4438,7 +4480,7 @@
       <c r="L59" s="118"/>
       <c r="M59" s="118"/>
     </row>
-    <row r="60" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="33">
         <f t="shared" si="2"/>
         <v>42521</v>
@@ -4464,7 +4506,7 @@
       <c r="L60" s="118"/>
       <c r="M60" s="118"/>
     </row>
-    <row r="61" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33">
         <f t="shared" si="2"/>
         <v>42551</v>
@@ -4490,7 +4532,7 @@
       <c r="L61" s="118"/>
       <c r="M61" s="118"/>
     </row>
-    <row r="62" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="33">
         <f t="shared" si="2"/>
         <v>42582</v>
@@ -4516,7 +4558,7 @@
       <c r="L62" s="118"/>
       <c r="M62" s="118"/>
     </row>
-    <row r="63" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33">
         <f t="shared" si="2"/>
         <v>42613</v>
@@ -4542,7 +4584,7 @@
       <c r="L63" s="118"/>
       <c r="M63" s="118"/>
     </row>
-    <row r="64" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="33">
         <f t="shared" si="2"/>
         <v>42643</v>
@@ -4568,7 +4610,7 @@
       <c r="L64" s="118"/>
       <c r="M64" s="118"/>
     </row>
-    <row r="65" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="33">
         <f t="shared" si="2"/>
         <v>42674</v>
@@ -4594,7 +4636,7 @@
       <c r="L65" s="118"/>
       <c r="M65" s="118"/>
     </row>
-    <row r="66" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="33">
         <f t="shared" si="2"/>
         <v>42704</v>
@@ -4620,7 +4662,7 @@
       <c r="L66" s="118"/>
       <c r="M66" s="118"/>
     </row>
-    <row r="67" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="14.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="33">
         <f t="shared" si="2"/>
         <v>42735</v>
@@ -4646,7 +4688,7 @@
       <c r="L67" s="118"/>
       <c r="M67" s="118"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="33">
         <f t="shared" si="2"/>
         <v>42766</v>
@@ -4655,35 +4697,37 @@
         <v>15297.57</v>
       </c>
       <c r="C68" s="79">
-        <f t="shared" ref="C68:C115" si="9">B68/B67-1</f>
+        <f t="shared" ref="C68:C118" si="15">B68/B67-1</f>
         <v>2.6943766233155975E-2</v>
       </c>
       <c r="D68" s="78">
-        <f t="shared" ref="D68:D115" si="10">D67*(1+E68)</f>
+        <f t="shared" ref="D68:D118" si="16">D67*(1+E68)</f>
         <v>14891.414186182559</v>
       </c>
       <c r="E68" s="80">
         <v>2.7548748562620684E-2</v>
       </c>
+      <c r="H68" s="116"/>
+      <c r="I68" s="118"/>
       <c r="J68" s="118"/>
       <c r="K68" s="118"/>
       <c r="L68" s="118"/>
       <c r="M68" s="118"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="33">
-        <f t="shared" ref="A69:A115" si="11">EOMONTH(A68,1)</f>
+        <f t="shared" ref="A69:A118" si="17">EOMONTH(A68,1)</f>
         <v>42794</v>
       </c>
       <c r="B69" s="78">
         <v>15607.19</v>
       </c>
       <c r="C69" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.0239815866180066E-2</v>
       </c>
       <c r="D69" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15315.829595617559</v>
       </c>
       <c r="E69" s="80">
@@ -4694,20 +4738,20 @@
       <c r="L69" s="118"/>
       <c r="M69" s="118"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>42825</v>
       </c>
       <c r="B70" s="78">
         <v>15848.01</v>
       </c>
       <c r="C70" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.5430067808490877E-2</v>
       </c>
       <c r="D70" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15513.500097505623</v>
       </c>
       <c r="E70" s="80">
@@ -4718,20 +4762,20 @@
       <c r="L70" s="118"/>
       <c r="M70" s="118"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>42855</v>
       </c>
       <c r="B71" s="119">
         <v>16042.96</v>
       </c>
       <c r="C71" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.2301228987109392E-2</v>
       </c>
       <c r="D71" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15762.405375219381</v>
       </c>
       <c r="E71" s="120">
@@ -4742,20 +4786,20 @@
       <c r="L71" s="118"/>
       <c r="M71" s="118"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>42886</v>
       </c>
       <c r="B72" s="119">
         <v>16857.150000000001</v>
       </c>
       <c r="C72" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.0750609613188669E-2</v>
       </c>
       <c r="D72" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16124.417182264604</v>
       </c>
       <c r="E72" s="120">
@@ -4766,72 +4810,70 @@
       <c r="L72" s="118"/>
       <c r="M72" s="110"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>42916</v>
       </c>
       <c r="B73" s="119">
         <v>16673.669999999998</v>
       </c>
       <c r="C73" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-1.0884402167626428E-2</v>
       </c>
       <c r="D73" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16204.371797826501</v>
       </c>
       <c r="E73" s="120">
         <v>4.9586049937879739E-3</v>
       </c>
-      <c r="H73" s="116"/>
-      <c r="I73" s="118"/>
-      <c r="J73" s="110"/>
-      <c r="K73" s="110"/>
-      <c r="L73" s="110"/>
+      <c r="J73" s="118"/>
+      <c r="K73" s="118"/>
+      <c r="L73" s="118"/>
       <c r="M73" s="110"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>42947</v>
       </c>
       <c r="B74" s="119">
         <v>16731</v>
       </c>
       <c r="C74" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.4383552031438391E-3</v>
       </c>
       <c r="D74" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16663.180101760412</v>
       </c>
       <c r="E74" s="120">
         <v>2.8313859349700321E-2</v>
       </c>
-      <c r="H74" s="111"/>
-      <c r="I74" s="110"/>
+      <c r="H74" s="116"/>
+      <c r="I74" s="118"/>
       <c r="J74" s="110"/>
       <c r="K74" s="110"/>
       <c r="L74" s="110"/>
       <c r="M74" s="110"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>42978</v>
       </c>
       <c r="B75" s="119">
         <v>16776.87</v>
       </c>
       <c r="C75" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.7416173570018465E-3</v>
       </c>
       <c r="D75" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16735.156984062254</v>
       </c>
       <c r="E75" s="120">
@@ -4844,20 +4886,20 @@
       <c r="L75" s="110"/>
       <c r="M75" s="110"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43008</v>
       </c>
       <c r="B76" s="119">
         <v>17017.689999999999</v>
       </c>
       <c r="C76" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.4354286586234499E-2</v>
       </c>
       <c r="D76" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17064.72600918325</v>
       </c>
       <c r="E76" s="120">
@@ -4870,20 +4912,20 @@
       <c r="L76" s="110"/>
       <c r="M76" s="110"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43039</v>
       </c>
       <c r="B77" s="119">
         <v>16983.29</v>
       </c>
       <c r="C77" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-2.0214259397132173E-3</v>
       </c>
       <c r="D77" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17423.014874040447</v>
       </c>
       <c r="E77" s="120">
@@ -4896,20 +4938,20 @@
       <c r="L77" s="110"/>
       <c r="M77" s="110"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43069</v>
       </c>
       <c r="B78" s="119">
         <v>17040.62</v>
       </c>
       <c r="C78" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.375671027227245E-3</v>
       </c>
       <c r="D78" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17768.184799758888</v>
       </c>
       <c r="E78" s="120">
@@ -4922,20 +4964,20 @@
       <c r="L78" s="110"/>
       <c r="M78" s="110"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43100</v>
       </c>
       <c r="B79" s="119">
         <v>17441.580000000002</v>
       </c>
       <c r="C79" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.352966030578707E-2</v>
       </c>
       <c r="D79" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18060.701685960954</v>
       </c>
       <c r="E79" s="120">
@@ -4948,20 +4990,20 @@
       <c r="L79" s="110"/>
       <c r="M79" s="110"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43131</v>
       </c>
       <c r="B80" s="119">
         <v>18244.04</v>
       </c>
       <c r="C80" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.6008446482486143E-2</v>
       </c>
       <c r="D80" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19083.447089900183</v>
       </c>
       <c r="E80" s="120">
@@ -4974,20 +5016,20 @@
       <c r="L80" s="110"/>
       <c r="M80" s="110"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43159</v>
       </c>
       <c r="B81" s="119">
         <v>17807.41</v>
       </c>
       <c r="C81" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-2.3932747352012007E-2</v>
       </c>
       <c r="D81" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18289.219423121238</v>
       </c>
       <c r="E81" s="120">
@@ -5000,20 +5042,20 @@
       <c r="L81" s="110"/>
       <c r="M81" s="110"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43190</v>
       </c>
       <c r="B82" s="119">
         <v>17713</v>
       </c>
       <c r="C82" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-5.3017255176356359E-3</v>
       </c>
       <c r="D82" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17908.770188097213</v>
       </c>
       <c r="E82" s="120">
@@ -5026,20 +5068,20 @@
       <c r="L82" s="110"/>
       <c r="M82" s="110"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43220</v>
       </c>
       <c r="B83" s="119">
         <v>17831.009999999998</v>
       </c>
       <c r="C83" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6.6623383955286553E-3</v>
       </c>
       <c r="D83" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18089.95337458116</v>
       </c>
       <c r="E83" s="120">
@@ -5052,20 +5094,20 @@
       <c r="L83" s="110"/>
       <c r="M83" s="110"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43251</v>
       </c>
       <c r="B84" s="119">
         <v>17689.400000000001</v>
       </c>
       <c r="C84" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-7.9417823219209982E-3</v>
       </c>
       <c r="D84" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18128.069211268095</v>
       </c>
       <c r="E84" s="120">
@@ -5078,20 +5120,20 @@
       <c r="L84" s="110"/>
       <c r="M84" s="110"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43281</v>
       </c>
       <c r="B85" s="119">
         <v>18090.63</v>
       </c>
       <c r="C85" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.268194511967625E-2</v>
       </c>
       <c r="D85" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18037.123052103452</v>
       </c>
       <c r="E85" s="120">
@@ -5104,20 +5146,20 @@
       <c r="L85" s="110"/>
       <c r="M85" s="110"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43312</v>
       </c>
       <c r="B86" s="119">
         <v>18173.23</v>
       </c>
       <c r="C86" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.565899584480837E-3</v>
       </c>
       <c r="D86" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18586.877515202006</v>
       </c>
       <c r="E86" s="120">
@@ -5130,20 +5172,20 @@
       <c r="L86" s="110"/>
       <c r="M86" s="110"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43343</v>
       </c>
       <c r="B87" s="119">
         <v>18480.060000000001</v>
       </c>
       <c r="C87" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.6883624980259526E-2</v>
       </c>
       <c r="D87" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18741.290974524432</v>
       </c>
       <c r="E87" s="120">
@@ -5156,20 +5198,20 @@
       <c r="L87" s="110"/>
       <c r="M87" s="110"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43373</v>
       </c>
       <c r="B88" s="119">
         <v>18515.46</v>
       </c>
       <c r="C88" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.9155781961746055E-3</v>
       </c>
       <c r="D88" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18830.464304075726</v>
       </c>
       <c r="E88" s="120">
@@ -5182,20 +5224,20 @@
       <c r="L88" s="110"/>
       <c r="M88" s="110"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43404</v>
       </c>
       <c r="B89" s="119">
         <v>17583.189999999999</v>
       </c>
       <c r="C89" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-5.0350895953975794E-2</v>
       </c>
       <c r="D89" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17423.54672292445</v>
       </c>
       <c r="E89" s="120">
@@ -5208,20 +5250,20 @@
       <c r="L89" s="110"/>
       <c r="M89" s="110"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43434</v>
       </c>
       <c r="B90" s="119">
         <v>17960.82</v>
       </c>
       <c r="C90" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.1476762748966483E-2</v>
       </c>
       <c r="D90" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17686.634637544976</v>
       </c>
       <c r="E90" s="120">
@@ -5234,20 +5276,20 @@
       <c r="L90" s="110"/>
       <c r="M90" s="110"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43465</v>
       </c>
       <c r="B91" s="119">
         <v>16907.79</v>
       </c>
       <c r="C91" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-5.8629283072821781E-2</v>
       </c>
       <c r="D91" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16447.958586700224</v>
       </c>
       <c r="E91" s="120">
@@ -5260,20 +5302,20 @@
       <c r="L91" s="110"/>
       <c r="M91" s="110"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43496</v>
       </c>
       <c r="B92" s="119">
         <v>17954.830000000002</v>
       </c>
       <c r="C92" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6.1926484774178059E-2</v>
       </c>
       <c r="D92" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17751.874767316105</v>
       </c>
       <c r="E92" s="120">
@@ -5286,20 +5328,20 @@
       <c r="L92" s="110"/>
       <c r="M92" s="110"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43524</v>
       </c>
       <c r="B93" s="119">
         <v>18433.11</v>
       </c>
       <c r="C93" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.6637957585786021E-2</v>
       </c>
       <c r="D93" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18234.616271030183</v>
       </c>
       <c r="E93" s="120">
@@ -5312,20 +5354,20 @@
       <c r="L93" s="110"/>
       <c r="M93" s="110"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43555</v>
       </c>
       <c r="B94" s="119">
         <v>18446.03</v>
       </c>
       <c r="C94" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>7.0091265120209023E-4</v>
       </c>
       <c r="D94" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18475.366532522552</v>
       </c>
       <c r="E94" s="120">
@@ -5338,20 +5380,20 @@
       <c r="L94" s="110"/>
       <c r="M94" s="110"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43585</v>
       </c>
       <c r="B95" s="119">
         <v>18743.34</v>
       </c>
       <c r="C95" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.611783131654887E-2</v>
       </c>
       <c r="D95" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19108.975836332364</v>
       </c>
       <c r="E95" s="120">
@@ -5364,20 +5406,20 @@
       <c r="L95" s="110"/>
       <c r="M95" s="110"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43616</v>
       </c>
       <c r="B96" s="119">
         <v>18019.46</v>
       </c>
       <c r="C96" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-3.8620651388706628E-2</v>
       </c>
       <c r="D96" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17991.384048079133</v>
       </c>
       <c r="E96" s="120">
@@ -5390,20 +5432,20 @@
       <c r="L96" s="110"/>
       <c r="M96" s="110"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43646</v>
       </c>
       <c r="B97" s="119">
         <v>19066.5</v>
       </c>
       <c r="C97" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.8106069771236335E-2</v>
       </c>
       <c r="D97" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19177.761625330182</v>
       </c>
       <c r="E97" s="120">
@@ -5416,20 +5458,20 @@
       <c r="L97" s="110"/>
       <c r="M97" s="110"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43677</v>
       </c>
       <c r="B98" s="119">
         <v>19273.330000000002</v>
       </c>
       <c r="C98" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.0847822096347048E-2</v>
       </c>
       <c r="D98" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19240.697076603956</v>
       </c>
       <c r="E98" s="120">
@@ -5442,20 +5484,20 @@
       <c r="L98" s="110"/>
       <c r="M98" s="110"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43708</v>
       </c>
       <c r="B99" s="119">
         <v>18976.02</v>
       </c>
       <c r="C99" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-1.5425979838460724E-2</v>
       </c>
       <c r="D99" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18792.880316272793</v>
       </c>
       <c r="E99" s="120">
@@ -5468,20 +5510,20 @@
       <c r="L99" s="110"/>
       <c r="M99" s="110"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43738</v>
       </c>
       <c r="B100" s="119">
         <v>19156.990000000002</v>
       </c>
       <c r="C100" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>9.5367732538225169E-3</v>
       </c>
       <c r="D100" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19197.085468115649</v>
       </c>
       <c r="E100" s="120">
@@ -5494,20 +5536,20 @@
       <c r="L100" s="110"/>
       <c r="M100" s="110"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43769</v>
       </c>
       <c r="B101" s="119">
         <v>18937</v>
       </c>
       <c r="C101" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-1.1483536818675644E-2</v>
       </c>
       <c r="D101" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19727.338805467396</v>
       </c>
       <c r="E101" s="120">
@@ -5520,20 +5562,20 @@
       <c r="L101" s="110"/>
       <c r="M101" s="110"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43799</v>
       </c>
       <c r="B102" s="119">
         <v>19144</v>
       </c>
       <c r="C102" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.0930981676083862E-2</v>
       </c>
       <c r="D102" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>20217.348910596193</v>
       </c>
       <c r="E102" s="120">
@@ -5546,20 +5588,20 @@
       <c r="L102" s="110"/>
       <c r="M102" s="110"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43830</v>
       </c>
       <c r="B103" s="119">
         <v>19829</v>
       </c>
       <c r="C103" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.5781445883827923E-2</v>
       </c>
       <c r="D103" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>20937.826865459945</v>
       </c>
       <c r="E103" s="120">
@@ -5572,20 +5614,20 @@
       <c r="L103" s="110"/>
       <c r="M103" s="110"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43861</v>
       </c>
       <c r="B104" s="119">
         <v>19428</v>
       </c>
       <c r="C104" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-2.0222905844974548E-2</v>
       </c>
       <c r="D104" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>20711.79108975835</v>
       </c>
       <c r="E104" s="120">
@@ -5598,20 +5640,20 @@
       <c r="L104" s="110"/>
       <c r="M104" s="110"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43890</v>
       </c>
       <c r="B105" s="119">
         <v>17635</v>
       </c>
       <c r="C105" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-9.2289479102326544E-2</v>
       </c>
       <c r="D105" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19046.926799865254</v>
       </c>
       <c r="E105" s="120">
@@ -5624,20 +5666,20 @@
       <c r="L105" s="110"/>
       <c r="M105" s="110"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43921</v>
       </c>
       <c r="B106" s="119">
         <v>15374</v>
       </c>
       <c r="C106" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-0.12821094414516587</v>
       </c>
       <c r="D106" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16486.960838193831</v>
       </c>
       <c r="E106" s="120">
@@ -5650,20 +5692,20 @@
       <c r="L106" s="110"/>
       <c r="M106" s="110"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43951</v>
       </c>
       <c r="B107" s="129">
         <v>16591</v>
       </c>
       <c r="C107" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>7.9159620137895237E-2</v>
       </c>
       <c r="D107" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18261.563281153034</v>
       </c>
       <c r="E107" s="120">
@@ -5676,20 +5718,20 @@
       <c r="L107" s="110"/>
       <c r="M107" s="110"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43982</v>
       </c>
       <c r="B108" s="129">
         <v>17488</v>
       </c>
       <c r="C108" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.4065457175577203E-2</v>
       </c>
       <c r="D108" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19066.782491534723</v>
       </c>
       <c r="E108" s="120">
@@ -5702,20 +5744,20 @@
       <c r="L108" s="110"/>
       <c r="M108" s="110"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>44012</v>
       </c>
       <c r="B109" s="129">
         <v>17769</v>
       </c>
       <c r="C109" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.6068161024702654E-2</v>
       </c>
       <c r="D109" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19684.259045863084</v>
       </c>
       <c r="E109" s="120">
@@ -5728,20 +5770,20 @@
       <c r="L109" s="110"/>
       <c r="M109" s="110"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>44043</v>
       </c>
       <c r="B110" s="129">
         <v>18411</v>
       </c>
       <c r="C110" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.6130339355056496E-2</v>
       </c>
       <c r="D110" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>20733.242328079828</v>
       </c>
       <c r="E110" s="120">
@@ -5754,20 +5796,20 @@
       <c r="L110" s="110"/>
       <c r="M110" s="110"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>44074</v>
       </c>
       <c r="B111" s="129">
         <v>19093</v>
       </c>
       <c r="C111" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.7043072076476058E-2</v>
       </c>
       <c r="D111" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22010.034215611515</v>
       </c>
       <c r="E111" s="120">
@@ -5780,20 +5822,20 @@
       <c r="L111" s="110"/>
       <c r="M111" s="110"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>44104</v>
       </c>
       <c r="B112" s="129">
         <v>18371</v>
       </c>
       <c r="C112" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-3.7814905986487179E-2</v>
       </c>
       <c r="D112" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21308.52553761056</v>
       </c>
       <c r="E112" s="120">
@@ -5806,20 +5848,20 @@
       <c r="L112" s="110"/>
       <c r="M112" s="110"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>44135</v>
       </c>
       <c r="B113" s="129">
         <v>18010</v>
       </c>
       <c r="C113" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-1.9650536171139321E-2</v>
       </c>
       <c r="D113" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>20795.536959976966</v>
       </c>
       <c r="E113" s="120">
@@ -5832,20 +5874,20 @@
       <c r="L113" s="110"/>
       <c r="M113" s="110"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>44165</v>
       </c>
       <c r="B114" s="129">
         <v>19883</v>
       </c>
       <c r="C114" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.10399777901166019</v>
       </c>
       <c r="D114" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>23366.479714549994</v>
       </c>
       <c r="E114" s="120">
@@ -5858,20 +5900,20 @@
       <c r="L114" s="110"/>
       <c r="M114" s="110"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>44196</v>
       </c>
       <c r="B115" s="129">
         <v>20911</v>
       </c>
       <c r="C115" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.1702459387416466E-2</v>
       </c>
       <c r="D115" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>24459.45537800714</v>
       </c>
       <c r="E115" s="120">
@@ -5884,11 +5926,25 @@
       <c r="L115" s="110"/>
       <c r="M115" s="110"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B116" s="78"/>
-      <c r="C116" s="79"/>
-      <c r="D116" s="121"/>
-      <c r="E116" s="80"/>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="33">
+        <f t="shared" si="17"/>
+        <v>44227</v>
+      </c>
+      <c r="B116" s="129">
+        <v>21006</v>
+      </c>
+      <c r="C116" s="79">
+        <f t="shared" si="15"/>
+        <v>4.5430634594232355E-3</v>
+      </c>
+      <c r="D116" s="78">
+        <f t="shared" si="16"/>
+        <v>24354.152771739708</v>
+      </c>
+      <c r="E116" s="120">
+        <v>-4.3051901458981412E-3</v>
+      </c>
       <c r="H116" s="111"/>
       <c r="I116" s="110"/>
       <c r="J116" s="110"/>
@@ -5896,9 +5952,25 @@
       <c r="L116" s="110"/>
       <c r="M116" s="110"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C117" s="79"/>
-      <c r="E117" s="80"/>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="33">
+        <f t="shared" si="17"/>
+        <v>44255</v>
+      </c>
+      <c r="B117" s="129">
+        <v>21524</v>
+      </c>
+      <c r="C117" s="79">
+        <f t="shared" si="15"/>
+        <v>2.4659621060649339E-2</v>
+      </c>
+      <c r="D117" s="78">
+        <f t="shared" si="16"/>
+        <v>24925.516913153733</v>
+      </c>
+      <c r="E117" s="120">
+        <v>2.3460645367923805E-2</v>
+      </c>
       <c r="H117" s="111"/>
       <c r="I117" s="110"/>
       <c r="J117" s="110"/>
@@ -5906,11 +5978,24 @@
       <c r="L117" s="110"/>
       <c r="M117" s="110"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C118" s="79"/>
-      <c r="E118" s="80"/>
-      <c r="G118" s="1" t="s">
-        <v>103</v>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="33">
+        <f t="shared" si="17"/>
+        <v>44286</v>
+      </c>
+      <c r="B118" s="129">
+        <v>22491</v>
+      </c>
+      <c r="C118" s="79">
+        <f t="shared" si="15"/>
+        <v>4.4926593569968309E-2</v>
+      </c>
+      <c r="D118" s="78">
+        <f t="shared" si="16"/>
+        <v>25604.488263329255</v>
+      </c>
+      <c r="E118" s="120">
+        <v>2.7240010810656967E-2</v>
       </c>
       <c r="H118" s="111"/>
       <c r="I118" s="110"/>
@@ -5919,8 +6004,10 @@
       <c r="L118" s="110"/>
       <c r="M118" s="110"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="78"/>
       <c r="C119" s="79"/>
+      <c r="D119" s="121"/>
       <c r="E119" s="80"/>
       <c r="H119" s="111"/>
       <c r="I119" s="110"/>
@@ -5929,7 +6016,7 @@
       <c r="L119" s="110"/>
       <c r="M119" s="110"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C120" s="79"/>
       <c r="E120" s="80"/>
       <c r="H120" s="111"/>
@@ -5939,7 +6026,7 @@
       <c r="L120" s="110"/>
       <c r="M120" s="110"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C121" s="79"/>
       <c r="E121" s="80"/>
       <c r="H121" s="111"/>
@@ -5949,9 +6036,12 @@
       <c r="L121" s="110"/>
       <c r="M121" s="110"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C122" s="79"/>
       <c r="E122" s="80"/>
+      <c r="G122" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="H122" s="111"/>
       <c r="I122" s="110"/>
       <c r="J122" s="110"/>
@@ -5959,7 +6049,7 @@
       <c r="L122" s="110"/>
       <c r="M122" s="110"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C123" s="79"/>
       <c r="E123" s="80"/>
       <c r="H123" s="111"/>
@@ -5969,7 +6059,7 @@
       <c r="L123" s="110"/>
       <c r="M123" s="110"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C124" s="79"/>
       <c r="E124" s="80"/>
       <c r="H124" s="111"/>
@@ -5979,7 +6069,7 @@
       <c r="L124" s="110"/>
       <c r="M124" s="110"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C125" s="79"/>
       <c r="E125" s="80"/>
       <c r="H125" s="111"/>
@@ -5989,7 +6079,9 @@
       <c r="L125" s="110"/>
       <c r="M125" s="110"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C126" s="79"/>
+      <c r="E126" s="80"/>
       <c r="H126" s="111"/>
       <c r="I126" s="110"/>
       <c r="J126" s="110"/>
@@ -5997,7 +6089,9 @@
       <c r="L126" s="110"/>
       <c r="M126" s="110"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C127" s="79"/>
+      <c r="E127" s="80"/>
       <c r="H127" s="111"/>
       <c r="I127" s="110"/>
       <c r="J127" s="110"/>
@@ -6005,7 +6099,9 @@
       <c r="L127" s="110"/>
       <c r="M127" s="110"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C128" s="79"/>
+      <c r="E128" s="80"/>
       <c r="H128" s="111"/>
       <c r="I128" s="110"/>
       <c r="J128" s="110"/>
@@ -6013,7 +6109,7 @@
       <c r="L128" s="110"/>
       <c r="M128" s="110"/>
     </row>
-    <row r="129" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H129" s="111"/>
       <c r="I129" s="110"/>
       <c r="J129" s="110"/>
@@ -6021,7 +6117,7 @@
       <c r="L129" s="110"/>
       <c r="M129" s="110"/>
     </row>
-    <row r="130" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H130" s="111"/>
       <c r="I130" s="110"/>
       <c r="J130" s="110"/>
@@ -6029,7 +6125,7 @@
       <c r="L130" s="110"/>
       <c r="M130" s="110"/>
     </row>
-    <row r="131" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H131" s="111"/>
       <c r="I131" s="110"/>
       <c r="J131" s="110"/>
@@ -6037,7 +6133,7 @@
       <c r="L131" s="110"/>
       <c r="M131" s="110"/>
     </row>
-    <row r="132" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H132" s="111"/>
       <c r="I132" s="110"/>
       <c r="J132" s="110"/>
@@ -6045,7 +6141,7 @@
       <c r="L132" s="110"/>
       <c r="M132" s="110"/>
     </row>
-    <row r="133" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H133" s="111"/>
       <c r="I133" s="110"/>
       <c r="J133" s="110"/>
@@ -6053,7 +6149,7 @@
       <c r="L133" s="110"/>
       <c r="M133" s="110"/>
     </row>
-    <row r="134" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H134" s="111"/>
       <c r="I134" s="110"/>
       <c r="J134" s="110"/>
@@ -6061,7 +6157,7 @@
       <c r="L134" s="110"/>
       <c r="M134" s="110"/>
     </row>
-    <row r="135" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H135" s="111"/>
       <c r="I135" s="110"/>
       <c r="J135" s="110"/>
@@ -6069,7 +6165,7 @@
       <c r="L135" s="110"/>
       <c r="M135" s="110"/>
     </row>
-    <row r="136" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H136" s="111"/>
       <c r="I136" s="110"/>
       <c r="J136" s="110"/>
@@ -6077,27 +6173,50 @@
       <c r="L136" s="110"/>
       <c r="M136" s="110"/>
     </row>
-    <row r="137" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H137" s="111"/>
       <c r="I137" s="110"/>
       <c r="J137" s="110"/>
       <c r="K137" s="110"/>
       <c r="L137" s="110"/>
-    </row>
-    <row r="138" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="M137" s="110"/>
+    </row>
+    <row r="138" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H138" s="111"/>
       <c r="I138" s="110"/>
+      <c r="J138" s="110"/>
+      <c r="K138" s="110"/>
+      <c r="L138" s="110"/>
+      <c r="M138" s="110"/>
+    </row>
+    <row r="139" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H139" s="111"/>
+      <c r="I139" s="110"/>
+      <c r="J139" s="110"/>
+      <c r="K139" s="110"/>
+      <c r="L139" s="110"/>
+      <c r="M139" s="110"/>
+    </row>
+    <row r="140" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H140" s="111"/>
+      <c r="I140" s="110"/>
+      <c r="J140" s="110"/>
+      <c r="K140" s="110"/>
+      <c r="L140" s="110"/>
+    </row>
+    <row r="141" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H141" s="111"/>
+      <c r="I141" s="110"/>
+      <c r="J141" s="110"/>
+      <c r="K141" s="110"/>
+      <c r="L141" s="110"/>
+    </row>
+    <row r="142" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H142" s="111"/>
+      <c r="I142" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P26:Q26"/>
@@ -6108,6 +6227,14 @@
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6117,20 +6244,20 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805705F1-4658-4B81-A27F-4522903CE05F}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -6141,133 +6268,133 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CAX Portfolio'!D17</f>
         <v>CONSUMER STAPLES</v>
       </c>
       <c r="B2" s="72">
         <f>'CAX Portfolio'!E17*100</f>
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CAX Portfolio'!D18</f>
         <v>INFORMATION TECHNOLOGY</v>
       </c>
       <c r="B3" s="72">
         <f>'CAX Portfolio'!E18*100</f>
-        <v>17.8</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CAX Portfolio'!D19</f>
         <v>HEALTH CARE</v>
       </c>
       <c r="B4" s="72">
         <f>'CAX Portfolio'!E19*100</f>
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'CAX Portfolio'!D20</f>
-        <v>INDUSTRIALS</v>
+        <v>COMMUNICATION SERVICES</v>
       </c>
       <c r="B5" s="72">
         <f>'CAX Portfolio'!E20*100</f>
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'CAX Portfolio'!D21</f>
-        <v>COMMUNICATION SERVICES</v>
+        <v>MATERIALS</v>
       </c>
       <c r="B6" s="72">
         <f>'CAX Portfolio'!E21*100</f>
-        <v>10.6</v>
+        <v>9.5</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'CAX Portfolio'!D22</f>
-        <v>MATERIALS</v>
+        <v>INDUSTRIALS</v>
       </c>
       <c r="B7" s="72">
         <f>'CAX Portfolio'!E22*100</f>
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'CAX Portfolio'!D23</f>
         <v>UTILITIES</v>
       </c>
       <c r="B8" s="72">
         <f>'CAX Portfolio'!E23*100</f>
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'CAX Portfolio'!D24</f>
-        <v>FINANCIALS</v>
+        <v>CONSUMER DISCRETIONARY</v>
       </c>
       <c r="B9" s="72">
         <f>'CAX Portfolio'!E24*100</f>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'CAX Portfolio'!D25</f>
-        <v>CONSUMER DISCRETIONARY</v>
+        <v>FINANCIALS</v>
       </c>
       <c r="B10" s="72">
         <f>'CAX Portfolio'!E25*100</f>
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="72"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="72"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="72"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="72"/>
     </row>
   </sheetData>
@@ -6278,18 +6405,20 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB1C4F0-1265-4E0D-AD07-6DF818CD739C}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -6300,40 +6429,40 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CAX Portfolio'!A17</f>
         <v>U.S.</v>
       </c>
       <c r="B2" s="72">
         <f>'CAX Portfolio'!B17*100</f>
-        <v>54.6</v>
+        <v>56.499999999999993</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CAX Portfolio'!A18</f>
         <v>Intl. Developed Markets</v>
       </c>
       <c r="B3" s="72">
         <f>'CAX Portfolio'!B18*100</f>
-        <v>36.1</v>
+        <v>36.6</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CAX Portfolio'!A19</f>
         <v>Intl. Emerging Markets</v>
       </c>
       <c r="B4" s="72">
         <f>'CAX Portfolio'!B19*100</f>
-        <v>9.1999999999999993</v>
+        <v>6.9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -6349,50 +6478,50 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="143" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="143" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="H1" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="171"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="166"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="6"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>19</v>
       </c>
@@ -6402,18 +6531,18 @@
       </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="126">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="21">
-        <v>5.57E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>51</v>
@@ -6422,51 +6551,51 @@
         <v>44</v>
       </c>
       <c r="I5" s="144">
-        <v>640176.43000000005</v>
+        <v>1271575</v>
       </c>
       <c r="J5" s="145">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="127">
-        <v>18.739999999999998</v>
+        <v>23.62</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E6" s="21">
-        <v>4.8000000000000001E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>51</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="144">
-        <v>2201087.98</v>
+        <v>2261356</v>
       </c>
       <c r="J6" s="145">
-        <v>0.04</v>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>104</v>
+      <c r="B7" s="67">
+        <v>174.2</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="E7" s="21">
-        <v>4.7199999999999999E-2</v>
+        <v>4.4500000000000005E-2</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>51</v>
@@ -6475,25 +6604,25 @@
         <v>45</v>
       </c>
       <c r="I7" s="144">
-        <v>2786400</v>
+        <v>2501280</v>
       </c>
       <c r="J7" s="145">
-        <v>5.0999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="146">
-        <v>0.308</v>
+        <v>0.2248</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E8" s="21">
-        <v>4.53E-2</v>
+        <v>4.0999999999999995E-2</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>51</v>
@@ -6502,45 +6631,45 @@
         <v>46</v>
       </c>
       <c r="I8" s="144">
-        <v>4437348.3499999996</v>
+        <v>4488246</v>
       </c>
       <c r="J8" s="145">
-        <v>8.1000000000000003E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="D9" s="7" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="E9" s="21">
-        <v>4.4500000000000005E-2</v>
+        <v>4.0099999999999997E-2</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="144">
-        <v>737300</v>
+        <v>1420558</v>
       </c>
       <c r="J9" s="145">
-        <v>1.3000000000000001E-2</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="17"/>
       <c r="D10" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" s="21">
-        <v>4.2800000000000005E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>51</v>
@@ -6549,14 +6678,14 @@
         <v>47</v>
       </c>
       <c r="I10" s="144">
-        <v>4418811.67</v>
+        <v>5243888</v>
       </c>
       <c r="J10" s="145">
-        <v>0.08</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>34</v>
       </c>
@@ -6564,10 +6693,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E11" s="21">
-        <v>3.9399999999999998E-2</v>
+        <v>3.5299999999999998E-2</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>51</v>
@@ -6576,25 +6705,25 @@
         <v>48</v>
       </c>
       <c r="I11" s="144">
-        <v>3445819.26</v>
+        <v>4427525</v>
       </c>
       <c r="J11" s="145">
-        <v>6.3E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="68">
-        <v>8.1000000000000003E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E12" s="21">
-        <v>3.7900000000000003E-2</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>56</v>
@@ -6603,52 +6732,52 @@
         <v>74</v>
       </c>
       <c r="I12" s="144">
-        <v>728398.58</v>
+        <v>643717.69999999995</v>
       </c>
       <c r="J12" s="145">
-        <v>1.3000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="68">
-        <v>0.183</v>
+        <v>0.128</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E13" s="21">
-        <v>3.5799999999999998E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>51</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="144">
-        <v>1133860</v>
+        <v>1575838</v>
       </c>
       <c r="J13" s="145">
-        <v>2.1000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="68">
-        <v>0.73599999999999999</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E14" s="21">
-        <v>3.3599999999999998E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>56</v>
@@ -6657,14 +6786,14 @@
         <v>63</v>
       </c>
       <c r="I14" s="144">
-        <v>1377883.01</v>
+        <v>1088289</v>
       </c>
       <c r="J14" s="145">
-        <v>2.5000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="E15" s="15"/>
       <c r="F15" s="8"/>
@@ -6672,17 +6801,17 @@
         <v>56</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="I15" s="144">
-        <v>565522.4</v>
+        <v>991366.5</v>
       </c>
       <c r="J15" s="145">
-        <v>0.01</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>39</v>
       </c>
@@ -6692,232 +6821,218 @@
       </c>
       <c r="E16" s="135"/>
       <c r="G16" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I16" s="144">
-        <v>1001021.45</v>
+        <v>35801345</v>
       </c>
       <c r="J16" s="145">
-        <v>1.8000000000000002E-2</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="68">
         <f>SUMIF(G:G,"us",J:J)</f>
-        <v>0.54600000000000004</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="147">
-        <v>0.23600000000000002</v>
+        <v>0.23</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" s="144">
-        <v>30019834.73</v>
+        <v>1616722</v>
       </c>
       <c r="J17" s="145">
-        <v>0.54600000000000004</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="68">
         <f>SUMIF(G:G,"d",J:J)</f>
-        <v>0.36100000000000004</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D18" s="141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="148">
-        <v>0.17800000000000002</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="144">
-        <v>1440312.48</v>
-      </c>
-      <c r="J18" s="145">
-        <v>2.6000000000000002E-2</v>
-      </c>
+        <v>0.18899999999999997</v>
+      </c>
+      <c r="H18" s="138"/>
+      <c r="I18" s="139">
+        <f>SUM(I5:I17)</f>
+        <v>63331706.200000003</v>
+      </c>
+      <c r="J18" s="149"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="140">
         <f>SUMIF(G:G, "em",J:J)</f>
-        <v>9.1999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="C19" s="131" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="148">
-        <v>0.13</v>
-      </c>
-      <c r="H19" s="138"/>
-      <c r="I19" s="139">
-        <f>SUM(I5:I18)</f>
-        <v>54933776.339999996</v>
-      </c>
-      <c r="J19" s="149"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.127</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="D20" s="141" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" s="148">
-        <v>0.107</v>
+        <v>0.105</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:11" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="D21" s="141" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E21" s="148">
-        <v>0.106</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="D22" s="136" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E22" s="150">
-        <v>9.4E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="D23" s="141" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="148">
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="D24" s="142" t="s">
         <v>101</v>
       </c>
       <c r="E24" s="151">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="25.2" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="D25" s="152" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25" s="153">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="E26" s="154"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="143"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="155"/>
       <c r="E27" s="156"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H33" s="12"/>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H34" s="11"/>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="11"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H36" s="11"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H37" s="11"/>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="I40" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D17:E25">
@@ -6934,22 +7049,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE4F274-22EB-45FB-B557-BF19DA646FF4}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="73" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="69"/>
-    <col min="3" max="3" width="10.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="69"/>
+    <col min="3" max="3" width="10.7109375" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -6960,7 +7075,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="73">
         <f>'CAX Fact Sheet Backup'!A2</f>
         <v>40753</v>
@@ -6974,7 +7089,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="73">
         <f>'CAX Fact Sheet Backup'!A3</f>
         <v>40786</v>
@@ -6988,7 +7103,7 @@
         <v>9273.4944244508661</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
         <f>'CAX Fact Sheet Backup'!A4</f>
         <v>40816</v>
@@ -7002,7 +7117,7 @@
         <v>8401.4395376460361</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
         <f>'CAX Fact Sheet Backup'!A5</f>
         <v>40847</v>
@@ -7016,7 +7131,7 @@
         <v>9303.1006789937419</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="73">
         <f>'CAX Fact Sheet Backup'!A6</f>
         <v>40877</v>
@@ -7030,7 +7145,7 @@
         <v>9029.9076355771449</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="73">
         <f>'CAX Fact Sheet Backup'!A7</f>
         <v>40908</v>
@@ -7044,7 +7159,7 @@
         <v>9014.8385838637041</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="73">
         <f>'CAX Fact Sheet Backup'!A8</f>
         <v>40939</v>
@@ -7058,7 +7173,7 @@
         <v>9541.5462619887603</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <f>'CAX Fact Sheet Backup'!A9</f>
         <v>40968</v>
@@ -7072,7 +7187,7 @@
         <v>10026.41516123885</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="73">
         <f>'CAX Fact Sheet Backup'!A10</f>
         <v>40999</v>
@@ -7086,7 +7201,7 @@
         <v>10097.860194656689</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="73">
         <f>'CAX Fact Sheet Backup'!A11</f>
         <v>41029</v>
@@ -7100,7 +7215,7 @@
         <v>9988.8311734359195</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="73">
         <f>'CAX Fact Sheet Backup'!A12</f>
         <v>41060</v>
@@ -7114,7 +7229,7 @@
         <v>9102.2390838016527</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="73">
         <f>'CAX Fact Sheet Backup'!A13</f>
         <v>41090</v>
@@ -7128,7 +7243,7 @@
         <v>9556.2607477795282</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="73">
         <f>'CAX Fact Sheet Backup'!A14</f>
         <v>41121</v>
@@ -7142,7 +7257,7 @@
         <v>9690.2866665484762</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="73">
         <f>'CAX Fact Sheet Backup'!A15</f>
         <v>41152</v>
@@ -7156,7 +7271,7 @@
         <v>9905.8627475313315</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="73">
         <f>'CAX Fact Sheet Backup'!A16</f>
         <v>41182</v>
@@ -7170,7 +7285,7 @@
         <v>10221.958267590901</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="73">
         <f>'CAX Fact Sheet Backup'!A17</f>
         <v>41213</v>
@@ -7184,7 +7299,7 @@
         <v>10156.540854858436</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="73">
         <f>'CAX Fact Sheet Backup'!A18</f>
         <v>41243</v>
@@ -7198,7 +7313,7 @@
         <v>10291.275905472723</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="73">
         <f>'CAX Fact Sheet Backup'!A19</f>
         <v>41274</v>
@@ -7212,7 +7327,7 @@
         <v>10529.36692254507</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="73">
         <f>'CAX Fact Sheet Backup'!A20</f>
         <v>41305</v>
@@ -7226,7 +7341,7 @@
         <v>11017.426915099188</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="73">
         <f>'CAX Fact Sheet Backup'!A21</f>
         <v>41333</v>
@@ -7240,7 +7355,7 @@
         <v>11020.795291364544</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="73">
         <f>'CAX Fact Sheet Backup'!A22</f>
         <v>41364</v>
@@ -7254,7 +7369,7 @@
         <v>11227.507224280671</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
         <f>'CAX Fact Sheet Backup'!A23</f>
         <v>41394</v>
@@ -7268,7 +7383,7 @@
         <v>11555.835268672326</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="73">
         <f>'CAX Fact Sheet Backup'!A24</f>
         <v>41425</v>
@@ -7282,7 +7397,7 @@
         <v>11543.425461378903</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="73">
         <f>'CAX Fact Sheet Backup'!A25</f>
         <v>41455</v>
@@ -7296,7 +7411,7 @@
         <v>11201.446628964488</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="73">
         <f>'CAX Fact Sheet Backup'!A26</f>
         <v>41486</v>
@@ -7310,7 +7425,7 @@
         <v>11741.2732462283</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="73">
         <f>'CAX Fact Sheet Backup'!A27</f>
         <v>41517</v>
@@ -7324,7 +7439,7 @@
         <v>11501.586682503939</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="73">
         <f>'CAX Fact Sheet Backup'!A28</f>
         <v>41547</v>
@@ -7338,7 +7453,7 @@
         <v>12100.093959969501</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="73">
         <f>'CAX Fact Sheet Backup'!A29</f>
         <v>41578</v>
@@ -7352,7 +7467,7 @@
         <v>12589.04036733029</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="73">
         <f>'CAX Fact Sheet Backup'!A30</f>
         <v>41608</v>
@@ -7366,7 +7481,7 @@
         <v>12772.705515272921</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="73">
         <f>'CAX Fact Sheet Backup'!A31</f>
         <v>41639</v>
@@ -7380,7 +7495,7 @@
         <v>12997.500310245176</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="73">
         <f>'CAX Fact Sheet Backup'!A32</f>
         <v>41670</v>
@@ -7394,7 +7509,7 @@
         <v>12480.543194993523</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="73">
         <f>'CAX Fact Sheet Backup'!A33</f>
         <v>41698</v>
@@ -7408,7 +7523,7 @@
         <v>13089.687450139161</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="73">
         <f>'CAX Fact Sheet Backup'!A34</f>
         <v>41729</v>
@@ -7422,7 +7537,7 @@
         <v>13154.750296948952</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="73">
         <f>'CAX Fact Sheet Backup'!A35</f>
         <v>41759</v>
@@ -7436,7 +7551,7 @@
         <v>13287.003386104556</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="73">
         <f>'CAX Fact Sheet Backup'!A36</f>
         <v>41790</v>
@@ -7450,7 +7565,7 @@
         <v>13581.115818958633</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="73">
         <f>'CAX Fact Sheet Backup'!A37</f>
         <v>41820</v>
@@ -7464,7 +7579,7 @@
         <v>13842.608186927149</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="73">
         <f>'CAX Fact Sheet Backup'!A38</f>
         <v>41851</v>
@@ -7478,7 +7593,7 @@
         <v>13678.976013615327</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="73">
         <f>'CAX Fact Sheet Backup'!A39</f>
         <v>41882</v>
@@ -7492,7 +7607,7 @@
         <v>13986.739234492168</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="73">
         <f>'CAX Fact Sheet Backup'!A40</f>
         <v>41912</v>
@@ -7506,7 +7621,7 @@
         <v>13538.567908238332</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="73">
         <f>'CAX Fact Sheet Backup'!A41</f>
         <v>41943</v>
@@ -7520,7 +7635,7 @@
         <v>13636.959951779028</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="73">
         <f>'CAX Fact Sheet Backup'!A42</f>
         <v>41973</v>
@@ -7534,7 +7649,7 @@
         <v>13870.973460740681</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="73">
         <f>'CAX Fact Sheet Backup'!A43</f>
         <v>42004</v>
@@ -7548,7 +7663,7 @@
         <v>13609.126526849497</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="73">
         <f>'CAX Fact Sheet Backup'!A44</f>
         <v>42035</v>
@@ -7562,7 +7677,7 @@
         <v>13399.400783590683</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="73">
         <f>'CAX Fact Sheet Backup'!A45</f>
         <v>42063</v>
@@ -7576,7 +7691,7 @@
         <v>14151.435105571996</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="73">
         <f>'CAX Fact Sheet Backup'!A46</f>
         <v>42094</v>
@@ -7590,7 +7705,7 @@
         <v>13940.645664545173</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="73">
         <f>'CAX Fact Sheet Backup'!A47</f>
         <v>42124</v>
@@ -7604,7 +7719,7 @@
         <v>14351.942134841411</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="73">
         <f>'CAX Fact Sheet Backup'!A48</f>
         <v>42155</v>
@@ -7618,7 +7733,7 @@
         <v>14344.318967504025</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="73">
         <f>'CAX Fact Sheet Backup'!A49</f>
         <v>42185</v>
@@ -7632,7 +7747,7 @@
         <v>14012.977112769682</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="73">
         <f>'CAX Fact Sheet Backup'!A50</f>
         <v>42216</v>
@@ -7646,7 +7761,7 @@
         <v>14139.734430123914</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="73">
         <f>'CAX Fact Sheet Backup'!A51</f>
         <v>42247</v>
@@ -7660,7 +7775,7 @@
         <v>13176.201535270438</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="73">
         <f>'CAX Fact Sheet Backup'!A52</f>
         <v>42277</v>
@@ -7674,7 +7789,7 @@
         <v>12704.806141081774</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="73">
         <f>'CAX Fact Sheet Backup'!A53</f>
         <v>42308</v>
@@ -7688,7 +7803,7 @@
         <v>13705.213891892843</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="73">
         <f>'CAX Fact Sheet Backup'!A54</f>
         <v>42338</v>
@@ -7702,7 +7817,7 @@
         <v>13598.134983246753</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="73">
         <f>'CAX Fact Sheet Backup'!A55</f>
         <v>42369</v>
@@ -7716,7 +7831,7 @@
         <v>13358.625702483727</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="73">
         <f>'CAX Fact Sheet Backup'!A56</f>
         <v>42400</v>
@@ -7730,7 +7845,7 @@
         <v>12556.065736522056</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="73">
         <f>'CAX Fact Sheet Backup'!A57</f>
         <v>42429</v>
@@ -7744,7 +7859,7 @@
         <v>12476.820252805495</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="73">
         <f>'CAX Fact Sheet Backup'!A58</f>
         <v>42460</v>
@@ -7758,7 +7873,7 @@
         <v>13410.037761270756</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="73">
         <f>'CAX Fact Sheet Backup'!A59</f>
         <v>42490</v>
@@ -7772,7 +7887,7 @@
         <v>13615.863279380212</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="73">
         <f>'CAX Fact Sheet Backup'!A60</f>
         <v>42521</v>
@@ -7786,7 +7901,7 @@
         <v>13644.583119116414</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="73">
         <f>'CAX Fact Sheet Backup'!A61</f>
         <v>42551</v>
@@ -7800,7 +7915,7 @@
         <v>13569.060577587881</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="73">
         <f>'CAX Fact Sheet Backup'!A62</f>
         <v>42582</v>
@@ -7814,7 +7929,7 @@
         <v>14157.994575141376</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="73">
         <f>'CAX Fact Sheet Backup'!A63</f>
         <v>42613</v>
@@ -7828,7 +7943,7 @@
         <v>14212.420444271092</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="73">
         <f>'CAX Fact Sheet Backup'!A64</f>
         <v>42643</v>
@@ -7842,7 +7957,7 @@
         <v>14305.848564894422</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="73">
         <f>'CAX Fact Sheet Backup'!A65</f>
         <v>42674</v>
@@ -7856,7 +7971,7 @@
         <v>14066.339284131396</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="73">
         <f>'CAX Fact Sheet Backup'!A66</f>
         <v>42704</v>
@@ -7870,7 +7985,7 @@
         <v>14180.154945308201</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="73">
         <f>'CAX Fact Sheet Backup'!A67</f>
         <v>42735</v>
@@ -7884,7 +7999,7 @@
         <v>14492.172957257073</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="73">
         <f>'CAX Fact Sheet Backup'!A68</f>
         <v>42766</v>
@@ -7898,7 +8013,7 @@
         <v>14891.414186182559</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="73">
         <f>'CAX Fact Sheet Backup'!A69</f>
         <v>42794</v>
@@ -7912,7 +8027,7 @@
         <v>15315.829595617559</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="73">
         <f>'CAX Fact Sheet Backup'!A70</f>
         <v>42825</v>
@@ -7926,7 +8041,7 @@
         <v>15513.500097505623</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="73">
         <f>'CAX Fact Sheet Backup'!A71</f>
         <v>42855</v>
@@ -7940,7 +8055,7 @@
         <v>15762.405375219381</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="73">
         <f>'CAX Fact Sheet Backup'!A72</f>
         <v>42886</v>
@@ -7954,7 +8069,7 @@
         <v>16124.417182264604</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="73">
         <f>'CAX Fact Sheet Backup'!A73</f>
         <v>42916</v>
@@ -7968,7 +8083,7 @@
         <v>16204.371797826501</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="73">
         <f>'CAX Fact Sheet Backup'!A74</f>
         <v>42947</v>
@@ -7982,7 +8097,7 @@
         <v>16663.180101760412</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="73">
         <f>'CAX Fact Sheet Backup'!A75</f>
         <v>42978</v>
@@ -7996,7 +8111,7 @@
         <v>16735.156984062254</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="73">
         <f>'CAX Fact Sheet Backup'!A76</f>
         <v>43008</v>
@@ -8010,7 +8125,7 @@
         <v>17064.72600918325</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="73">
         <f>'CAX Fact Sheet Backup'!A77</f>
         <v>43039</v>
@@ -8024,7 +8139,7 @@
         <v>17423.014874040447</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="73">
         <f>'CAX Fact Sheet Backup'!A78</f>
         <v>43069</v>
@@ -8038,7 +8153,7 @@
         <v>17768.184799758888</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="73">
         <f>'CAX Fact Sheet Backup'!A79</f>
         <v>43100</v>
@@ -8052,7 +8167,7 @@
         <v>18060.701685960954</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="73">
         <f>'CAX Fact Sheet Backup'!A80</f>
         <v>43131</v>
@@ -8066,7 +8181,7 @@
         <v>19083.447089900183</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="73">
         <f>'CAX Fact Sheet Backup'!A81</f>
         <v>43159</v>
@@ -8080,7 +8195,7 @@
         <v>18289.219423121238</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="73">
         <f>'CAX Fact Sheet Backup'!A82</f>
         <v>43190</v>
@@ -8094,7 +8209,7 @@
         <v>17908.770188097213</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="73">
         <f>'CAX Fact Sheet Backup'!A83</f>
         <v>43220</v>
@@ -8108,7 +8223,7 @@
         <v>18089.95337458116</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="73">
         <f>'CAX Fact Sheet Backup'!A84</f>
         <v>43251</v>
@@ -8122,7 +8237,7 @@
         <v>18128.069211268095</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="73">
         <f>'CAX Fact Sheet Backup'!A85</f>
         <v>43281</v>
@@ -8136,7 +8251,7 @@
         <v>18037.123052103452</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="73">
         <f>'CAX Fact Sheet Backup'!A86</f>
         <v>43312</v>
@@ -8150,7 +8265,7 @@
         <v>18586.877515202006</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="73">
         <f>'CAX Fact Sheet Backup'!A87</f>
         <v>43343</v>
@@ -8164,7 +8279,7 @@
         <v>18741.290974524432</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="73">
         <f>'CAX Fact Sheet Backup'!A88</f>
         <v>43373</v>
@@ -8178,7 +8293,7 @@
         <v>18830.464304075726</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="73">
         <f>'CAX Fact Sheet Backup'!A89</f>
         <v>43404</v>
@@ -8192,7 +8307,7 @@
         <v>17423.54672292445</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="73">
         <f>'CAX Fact Sheet Backup'!A90</f>
         <v>43434</v>
@@ -8206,7 +8321,7 @@
         <v>17686.634637544976</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="73">
         <f>'CAX Fact Sheet Backup'!A91</f>
         <v>43465</v>
@@ -8220,7 +8335,7 @@
         <v>16447.958586700224</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="73">
         <f>'CAX Fact Sheet Backup'!A92</f>
         <v>43496</v>
@@ -8234,7 +8349,7 @@
         <v>17751.874767316105</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="73">
         <f>'CAX Fact Sheet Backup'!A93</f>
         <v>43524</v>
@@ -8248,7 +8363,7 @@
         <v>18234.616271030183</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="73">
         <f>'CAX Fact Sheet Backup'!A94</f>
         <v>43555</v>
@@ -8262,7 +8377,7 @@
         <v>18475.366532522552</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="73">
         <f>'CAX Fact Sheet Backup'!A95</f>
         <v>43585</v>
@@ -8276,7 +8391,7 @@
         <v>19108.975836332364</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="73">
         <f>'CAX Fact Sheet Backup'!A96</f>
         <v>43616</v>
@@ -8290,7 +8405,7 @@
         <v>17991.384048079133</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="73">
         <f>'CAX Fact Sheet Backup'!A97</f>
         <v>43646</v>
@@ -8304,7 +8419,7 @@
         <v>19177.761625330182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="73">
         <f>'CAX Fact Sheet Backup'!A98</f>
         <v>43677</v>
@@ -8318,7 +8433,7 @@
         <v>19240.697076603956</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="73">
         <f>'CAX Fact Sheet Backup'!A99</f>
         <v>43708</v>
@@ -8332,7 +8447,7 @@
         <v>18792.880316272793</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="73">
         <f>'CAX Fact Sheet Backup'!A100</f>
         <v>43738</v>
@@ -8346,7 +8461,7 @@
         <v>19197.085468115649</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="73">
         <f>'CAX Fact Sheet Backup'!A101</f>
         <v>43769</v>
@@ -8360,7 +8475,7 @@
         <v>19727.338805467396</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="73">
         <f>'CAX Fact Sheet Backup'!A102</f>
         <v>43799</v>
@@ -8374,7 +8489,7 @@
         <v>20217.348910596193</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="73">
         <f>'CAX Fact Sheet Backup'!A103</f>
         <v>43830</v>
@@ -8388,7 +8503,7 @@
         <v>20937.826865459945</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="73">
         <f>'CAX Fact Sheet Backup'!A104</f>
         <v>43861</v>
@@ -8402,7 +8517,7 @@
         <v>20711.79108975835</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="73">
         <f>'CAX Fact Sheet Backup'!A105</f>
         <v>43890</v>
@@ -8416,7 +8531,7 @@
         <v>19046.926799865254</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="73">
         <f>'CAX Fact Sheet Backup'!A106</f>
         <v>43921</v>
@@ -8430,7 +8545,7 @@
         <v>16486.960838193831</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="73">
         <f>'CAX Fact Sheet Backup'!A107</f>
         <v>43951</v>
@@ -8444,7 +8559,7 @@
         <v>18261.563281153034</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="73">
         <f>'CAX Fact Sheet Backup'!A108</f>
         <v>43982</v>
@@ -8458,7 +8573,7 @@
         <v>19066.782491534723</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="73">
         <f>'CAX Fact Sheet Backup'!A109</f>
         <v>44012</v>
@@ -8472,7 +8587,7 @@
         <v>19684.259045863084</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="73">
         <f>'CAX Fact Sheet Backup'!A110</f>
         <v>44043</v>
@@ -8486,7 +8601,7 @@
         <v>20733.242328079828</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="73">
         <f>'CAX Fact Sheet Backup'!A111</f>
         <v>44074</v>
@@ -8500,7 +8615,7 @@
         <v>22010.034215611515</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="73">
         <f>'CAX Fact Sheet Backup'!A112</f>
         <v>44104</v>
@@ -8514,7 +8629,7 @@
         <v>21308.52553761056</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="73">
         <f>'CAX Fact Sheet Backup'!A113</f>
         <v>44135</v>
@@ -8528,7 +8643,7 @@
         <v>20795.536959976966</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="73">
         <f>'CAX Fact Sheet Backup'!A114</f>
         <v>44165</v>
@@ -8542,7 +8657,7 @@
         <v>23366.479714549994</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="73">
         <f>'CAX Fact Sheet Backup'!A115</f>
         <v>44196</v>
@@ -8554,6 +8669,48 @@
       <c r="C115" s="69">
         <f>'CAX Fact Sheet Backup'!D115</f>
         <v>24459.45537800714</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="73">
+        <f>'CAX Fact Sheet Backup'!A116</f>
+        <v>44227</v>
+      </c>
+      <c r="B116" s="69">
+        <f>'CAX Fact Sheet Backup'!B116</f>
+        <v>21006</v>
+      </c>
+      <c r="C116" s="69">
+        <f>'CAX Fact Sheet Backup'!D116</f>
+        <v>24354.152771739708</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="73">
+        <f>'CAX Fact Sheet Backup'!A117</f>
+        <v>44255</v>
+      </c>
+      <c r="B117" s="69">
+        <f>'CAX Fact Sheet Backup'!B117</f>
+        <v>21524</v>
+      </c>
+      <c r="C117" s="69">
+        <f>'CAX Fact Sheet Backup'!D117</f>
+        <v>24925.516913153733</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="73">
+        <f>'CAX Fact Sheet Backup'!A118</f>
+        <v>44286</v>
+      </c>
+      <c r="B118" s="69">
+        <f>'CAX Fact Sheet Backup'!B118</f>
+        <v>22491</v>
+      </c>
+      <c r="C118" s="69">
+        <f>'CAX Fact Sheet Backup'!D118</f>
+        <v>25604.488263329255</v>
       </c>
     </row>
   </sheetData>
@@ -8565,15 +8722,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D197C2E-6A15-44A2-97CB-75F0699F15FC}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8587,7 +8746,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2011</v>
       </c>
@@ -8603,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -8619,7 +8778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -8635,7 +8794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2014</v>
       </c>
@@ -8651,7 +8810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -8667,7 +8826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2016</v>
       </c>
@@ -8683,7 +8842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -8699,7 +8858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -8715,7 +8874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -8731,7 +8890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -8745,6 +8904,22 @@
       </c>
       <c r="D11">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="69">
+        <f>'CAX Fact Sheet Backup'!K51*100</f>
+        <v>7.5558318588302864</v>
+      </c>
+      <c r="C12" s="69">
+        <f>'CAX Fact Sheet Backup'!L51*100</f>
+        <v>4.6813506990498244</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -8755,19 +8930,21 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9F977D-E682-4DA8-A3D6-E8252DC4C49C}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'CAX Fact Sheet Backup'!G13</f>
         <v>Share Class/Benchmark</v>
@@ -8800,257 +8977,257 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="69">
         <f>'CAX Fact Sheet Backup'!H14</f>
-        <v>13.82613902346089</v>
+        <v>7.5558318588302811</v>
       </c>
       <c r="C2" s="69">
         <f>'CAX Fact Sheet Backup'!I14</f>
-        <v>5.4566543950779156</v>
+        <v>7.5558318588302811</v>
       </c>
       <c r="D2" s="69">
         <f>'CAX Fact Sheet Backup'!J14</f>
-        <v>5.4566543950779156</v>
+        <v>46.300000000000004</v>
       </c>
       <c r="E2" s="69">
         <f>'CAX Fact Sheet Backup'!K14</f>
-        <v>6.2338675217651129</v>
+        <v>8.2859757643265919</v>
       </c>
       <c r="F2" s="69">
         <f>'CAX Fact Sheet Backup'!L14</f>
-        <v>9.1433474627167435</v>
+        <v>10.161698089845327</v>
       </c>
       <c r="G2" s="69">
         <f>'CAX Fact Sheet Backup'!M14</f>
-        <v>8.14</v>
+        <v>8.74</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="69">
         <f>'CAX Fact Sheet Backup'!H15</f>
-        <v>13.61</v>
+        <v>7.39</v>
       </c>
       <c r="C3" s="69">
         <f>'CAX Fact Sheet Backup'!I15</f>
-        <v>4.68</v>
+        <v>7.39</v>
       </c>
       <c r="D3" s="69">
         <f>'CAX Fact Sheet Backup'!J15</f>
-        <v>4.68</v>
+        <v>45.25</v>
       </c>
       <c r="E3" s="69">
         <f>'CAX Fact Sheet Backup'!K15</f>
-        <v>5.4399999999999995</v>
+        <v>7.4899999999999993</v>
       </c>
       <c r="F3" s="69">
         <f>'CAX Fact Sheet Backup'!L15</f>
-        <v>8.3000000000000007</v>
+        <v>9.31</v>
       </c>
       <c r="G3" s="69">
         <f>'CAX Fact Sheet Backup'!M15</f>
-        <v>7.32</v>
+        <v>7.9200000000000008</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="69">
-        <f>'CAX Fact Sheet Backup'!H16</f>
-        <v>14.787179126190781</v>
+        <f>'CAX Fact Sheet Backup'!H18</f>
+        <v>1.37</v>
       </c>
       <c r="C4" s="69">
-        <f>'CAX Fact Sheet Backup'!I16</f>
-        <v>16.819455692207697</v>
+        <f>'CAX Fact Sheet Backup'!I18</f>
+        <v>1.37</v>
       </c>
       <c r="D4" s="69">
-        <f>'CAX Fact Sheet Backup'!J16</f>
-        <v>16.819455692207697</v>
+        <f>'CAX Fact Sheet Backup'!J18</f>
+        <v>37.880000000000003</v>
       </c>
       <c r="E4" s="69">
-        <f>'CAX Fact Sheet Backup'!K16</f>
-        <v>10.637933256990294</v>
+        <f>'CAX Fact Sheet Backup'!K18</f>
+        <v>6.17</v>
       </c>
       <c r="F4" s="69">
-        <f>'CAX Fact Sheet Backup'!L16</f>
-        <v>12.85920851984692</v>
+        <f>'CAX Fact Sheet Backup'!L18</f>
+        <v>8.86</v>
       </c>
       <c r="G4" s="69">
-        <f>'CAX Fact Sheet Backup'!M16</f>
-        <v>9.9551785961717201</v>
+        <f>'CAX Fact Sheet Backup'!M18</f>
+        <v>8.08</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="69">
-        <f>'CAX Fact Sheet Backup'!H17</f>
-        <v>15.190000000000001</v>
+        <f>'CAX Fact Sheet Backup'!H16</f>
+        <v>4.6813506990498137</v>
       </c>
       <c r="C5" s="69">
-        <f>'CAX Fact Sheet Backup'!I17</f>
-        <v>-0.32</v>
+        <f>'CAX Fact Sheet Backup'!I16</f>
+        <v>4.6813506990498137</v>
       </c>
       <c r="D5" s="69">
-        <f>'CAX Fact Sheet Backup'!J17</f>
-        <v>-0.32</v>
+        <f>'CAX Fact Sheet Backup'!J16</f>
+        <v>55.31</v>
       </c>
       <c r="E5" s="69">
-        <f>'CAX Fact Sheet Backup'!K17</f>
-        <v>3.2399999999999998</v>
+        <f>'CAX Fact Sheet Backup'!K16</f>
+        <v>12.659999999999998</v>
       </c>
       <c r="F5" s="69">
-        <f>'CAX Fact Sheet Backup'!L17</f>
-        <v>8.02</v>
+        <f>'CAX Fact Sheet Backup'!L16</f>
+        <v>13.809160521929375</v>
       </c>
       <c r="G5" s="69">
-        <f>'CAX Fact Sheet Backup'!M17</f>
-        <v>7.7700000000000005</v>
+        <f>'CAX Fact Sheet Backup'!M16</f>
+        <v>10.205783664519231</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" s="69">
-        <f>'CAX Fact Sheet Backup'!H18</f>
-        <v>7.28</v>
+        <f>'CAX Fact Sheet Backup'!H17</f>
+        <v>9.0399999999999991</v>
       </c>
       <c r="C6" s="69">
-        <f>'CAX Fact Sheet Backup'!I18</f>
-        <v>-0.61</v>
+        <f>'CAX Fact Sheet Backup'!I17</f>
+        <v>9.0399999999999991</v>
       </c>
       <c r="D6" s="69">
-        <f>'CAX Fact Sheet Backup'!J18</f>
-        <v>-0.61</v>
+        <f>'CAX Fact Sheet Backup'!J17</f>
+        <v>49.88</v>
       </c>
       <c r="E6" s="69">
-        <f>'CAX Fact Sheet Backup'!K18</f>
-        <v>4.16</v>
+        <f>'CAX Fact Sheet Backup'!K17</f>
+        <v>7.03</v>
       </c>
       <c r="F6" s="69">
-        <f>'CAX Fact Sheet Backup'!L18</f>
-        <v>7.86</v>
+        <f>'CAX Fact Sheet Backup'!L17</f>
+        <v>9.85</v>
       </c>
       <c r="G6" s="69">
-        <f>'CAX Fact Sheet Backup'!M18</f>
-        <v>7.46</v>
+        <f>'CAX Fact Sheet Backup'!M17</f>
+        <v>7.75</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="69">
         <f>'CAX Fact Sheet Backup'!H19</f>
-        <v>13.88</v>
+        <v>7.6300000000000008</v>
       </c>
       <c r="C7" s="69">
         <f>'CAX Fact Sheet Backup'!I19</f>
-        <v>5.66</v>
+        <v>7.6300000000000008</v>
       </c>
       <c r="D7" s="69">
         <f>'CAX Fact Sheet Backup'!J19</f>
-        <v>5.66</v>
+        <v>46.67</v>
       </c>
       <c r="E7" s="69">
         <f>'CAX Fact Sheet Backup'!K19</f>
-        <v>6.5100000000000007</v>
+        <v>8.57</v>
       </c>
       <c r="F7" s="69">
         <f>'CAX Fact Sheet Backup'!L19</f>
-        <v>9.42</v>
+        <v>10.42</v>
       </c>
       <c r="G7" s="69">
         <f>'CAX Fact Sheet Backup'!M19</f>
-        <v>6.23</v>
+        <v>7.1400000000000006</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="69">
         <f>'CAX Fact Sheet Backup'!H20</f>
-        <v>14.787179126190781</v>
+        <v>4.6813506990498137</v>
       </c>
       <c r="C8" s="69">
         <f>'CAX Fact Sheet Backup'!I20</f>
-        <v>16.819455692207697</v>
+        <v>4.6813506990498137</v>
       </c>
       <c r="D8" s="69">
         <f>'CAX Fact Sheet Backup'!J20</f>
-        <v>16.819455692207697</v>
+        <v>55.31</v>
       </c>
       <c r="E8" s="69">
         <f>'CAX Fact Sheet Backup'!K20</f>
-        <v>10.637933256990294</v>
+        <v>12.659999999999998</v>
       </c>
       <c r="F8" s="69">
         <f>'CAX Fact Sheet Backup'!L20</f>
-        <v>12.85920851984692</v>
+        <v>13.809160521929375</v>
       </c>
       <c r="G8" s="69">
         <f>'CAX Fact Sheet Backup'!M20</f>
-        <v>9.16</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" s="69">
         <f>'CAX Fact Sheet Backup'!H21</f>
-        <v>15.190000000000001</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="C9" s="69">
         <f>'CAX Fact Sheet Backup'!I21</f>
-        <v>-0.32</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="D9" s="69">
         <f>'CAX Fact Sheet Backup'!J21</f>
-        <v>-0.32</v>
+        <v>49.88</v>
       </c>
       <c r="E9" s="69">
         <f>'CAX Fact Sheet Backup'!K21</f>
-        <v>3.2399999999999998</v>
+        <v>7.03</v>
       </c>
       <c r="F9" s="69">
         <f>'CAX Fact Sheet Backup'!L21</f>
-        <v>8.02</v>
+        <v>9.85</v>
       </c>
       <c r="G9" s="69">
         <f>'CAX Fact Sheet Backup'!M21</f>
-        <v>5.0500000000000007</v>
+        <v>5.94</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -9064,19 +9241,21 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA11AEC-C945-426B-9901-7518C27689E0}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -9092,13 +9271,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="128">
         <f>'CAX Fact Sheet Backup'!H7</f>
-        <v>4.2781594677875068E-3</v>
+        <v>8.230259415168889E-3</v>
       </c>
       <c r="C2" s="70">
         <f>'CAX Fact Sheet Backup'!I7</f>
@@ -9108,13 +9287,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="70">
         <f>'CAX Fact Sheet Backup'!H8</f>
-        <v>0.77304238627201904</v>
+        <v>0.77534444342982078</v>
       </c>
       <c r="C3" s="70">
         <f>'CAX Fact Sheet Backup'!I8</f>
@@ -9124,13 +9303,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="70">
         <f>'CAX Fact Sheet Backup'!H9</f>
-        <v>0.8654331668013262</v>
+        <v>0.86252696994185818</v>
       </c>
       <c r="C4" s="70">
         <f>'CAX Fact Sheet Backup'!I9</f>
@@ -9140,43 +9319,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="70">
         <f>'CAX Fact Sheet Backup'!H10</f>
-        <v>0.66986406148488931</v>
+        <v>0.72924358443202297</v>
       </c>
       <c r="C5" s="70">
         <f>'CAX Fact Sheet Backup'!I10</f>
-        <v>0.68796660705111812</v>
+        <v>0.71730289838241135</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="128">
         <f>'CAX Fact Sheet Backup'!H11</f>
-        <v>0.12043786887322049</v>
+        <v>0.11960749722321427</v>
       </c>
       <c r="C6" s="128">
         <f>'CAX Fact Sheet Backup'!I11</f>
-        <v>0.14365346362570461</v>
+        <v>0.14203321480359779</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="128"/>
       <c r="C7" s="128"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="128"/>
       <c r="C8" s="128"/>
     </row>
@@ -9188,21 +9367,21 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79976B50-10CA-4AD0-8F80-308F69915F78}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>69</v>
       </c>
@@ -9213,53 +9392,53 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="str">
         <f>'CAX Portfolio'!A5</f>
         <v>Number of Holdings</v>
       </c>
       <c r="B2" s="71">
         <f>'CAX Portfolio'!B5</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="71">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="str">
         <f>'CAX Portfolio'!A6</f>
         <v>P/E Ratio</v>
       </c>
       <c r="B3" s="71">
         <f>'CAX Portfolio'!B6</f>
-        <v>18.739999999999998</v>
+        <v>23.62</v>
       </c>
       <c r="C3" s="71">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="str">
         <f>'CAX Portfolio'!A7</f>
         <v>Wtd. Avg. Market Cap.</v>
       </c>
-      <c r="B4" s="71" t="str">
+      <c r="B4" s="71">
         <f>'CAX Portfolio'!B7</f>
-        <v>$184.2B</v>
+        <v>174.2</v>
       </c>
       <c r="C4" s="71">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="str">
         <f>'CAX Portfolio'!A8</f>
         <v>Turnover</v>
       </c>
       <c r="B5" s="74">
         <f>'CAX Portfolio'!B8*100</f>
-        <v>30.8</v>
+        <v>22.48</v>
       </c>
       <c r="C5" s="71">
         <v>4</v>
@@ -9274,20 +9453,20 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AFE148-0DD5-4DF4-BF19-FA77FE826FEF}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -9298,7 +9477,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CAX Portfolio'!A11</f>
         <v>Less than $500MM</v>
@@ -9311,40 +9490,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CAX Portfolio'!A12</f>
         <v>$500MM - $2BN</v>
       </c>
       <c r="B3" s="72">
         <f>'CAX Portfolio'!B12*100</f>
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CAX Portfolio'!A13</f>
         <v>$2BN - $7BN</v>
       </c>
       <c r="B4" s="72">
         <f>'CAX Portfolio'!B13*100</f>
-        <v>18.3</v>
+        <v>12.8</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'CAX Portfolio'!A14</f>
         <v>Greater than $7BN</v>
       </c>
       <c r="B5" s="72">
         <f>'CAX Portfolio'!B14*100</f>
-        <v>73.599999999999994</v>
+        <v>79.3</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -9358,20 +9537,20 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9349D4CA-BF36-47C2-A4C8-5BDE42627A08}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -9382,131 +9561,131 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CAX Portfolio'!D5</f>
         <v>Bunge LTD</v>
       </c>
       <c r="B2" s="72">
         <f>'CAX Portfolio'!E5*100</f>
-        <v>5.57</v>
+        <v>5.04</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CAX Portfolio'!D6</f>
-        <v>Sprott Physical Gold &amp; Silver Trust</v>
+        <v>Micron Technology Inc</v>
       </c>
       <c r="B3" s="72">
         <f>'CAX Portfolio'!E6*100</f>
-        <v>4.8</v>
+        <v>4.54</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CAX Portfolio'!D7</f>
-        <v>Kratos Defense &amp; Security</v>
+        <v>Tetra Tech Inc</v>
       </c>
       <c r="B4" s="72">
         <f>'CAX Portfolio'!E7*100</f>
-        <v>4.72</v>
+        <v>4.45</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'CAX Portfolio'!D8</f>
-        <v>Micron Technology Inc</v>
+        <v>eBay Inc</v>
       </c>
       <c r="B5" s="72">
         <f>'CAX Portfolio'!E8*100</f>
-        <v>4.53</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'CAX Portfolio'!D9</f>
-        <v>Tetra Tech Inc</v>
+        <v>Kratos Defense &amp; Security</v>
       </c>
       <c r="B6" s="72">
         <f>'CAX Portfolio'!E9*100</f>
-        <v>4.45</v>
+        <v>4.01</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'CAX Portfolio'!D10</f>
-        <v>Novartis AG-ADR</v>
+        <v>Sprott Physical Gold &amp; Silver Trust</v>
       </c>
       <c r="B7" s="72">
         <f>'CAX Portfolio'!E10*100</f>
-        <v>4.28</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'CAX Portfolio'!D11</f>
-        <v>eBay Inc</v>
+        <v>Cisco Systems Inc</v>
       </c>
       <c r="B8" s="72">
         <f>'CAX Portfolio'!E11*100</f>
-        <v>3.94</v>
+        <v>3.53</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'CAX Portfolio'!D12</f>
-        <v>Groupe Bruxelles Lambert SA</v>
+        <v>Mosaic Co</v>
       </c>
       <c r="B9" s="72">
         <f>'CAX Portfolio'!E12*100</f>
-        <v>3.7900000000000005</v>
+        <v>3.51</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'CAX Portfolio'!D13</f>
-        <v>Cisco Systems Inc</v>
+        <v>Novartis AG-ADR</v>
       </c>
       <c r="B10" s="72">
         <f>'CAX Portfolio'!E13*100</f>
-        <v>3.58</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'CAX Portfolio'!D14</f>
-        <v>Nestle - ADR</v>
+        <v>Groupe Bruxelles Lambert SA</v>
       </c>
       <c r="B11" s="72">
         <f>'CAX Portfolio'!E14*100</f>
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="C11">
         <v>10</v>
